--- a/Template_res.xlsx
+++ b/Template_res.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\COURS\GI06\GP30\Projet\Pricing_GP30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF7FFB2-1C0F-4C9A-B527-F39C4432E3E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B980496A-84EB-4023-925D-389CAFACFF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1778" yWindow="1778" windowWidth="15390" windowHeight="9532" activeTab="1" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
   </bookViews>
   <sheets>
     <sheet name="P_val" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Client 1 (i=1)</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -484,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3569C8-51AF-4791-9D67-95512B7DB2A1}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -529,10 +532,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -564,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1646CF2-DCB4-4B60-ABE2-3202B1316263}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/Template_res.xlsx
+++ b/Template_res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\COURS\GI06\GP30\Projet\Pricing_GP30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262FB4EE-B4D8-40E2-B8A6-8AB8C608E5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B99EF-C3DD-4B69-AB91-5257B301D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="5025" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="7" r:id="rId1"/>
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -196,11 +196,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -213,6 +416,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,6 +439,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3569C8-51AF-4791-9D67-95512B7DB2A1}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -615,22 +849,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>11</v>
+        <v>2200</v>
       </c>
       <c r="C2" s="3">
-        <v>10.568683830675555</v>
+        <v>2200</v>
       </c>
       <c r="D2" s="3">
-        <v>10.154279810252993</v>
+        <v>2200</v>
       </c>
       <c r="E2" s="3">
-        <v>9.7561248038887314</v>
+        <v>2200</v>
       </c>
       <c r="F2" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -639,22 +873,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>21.5</v>
+        <v>2200</v>
       </c>
       <c r="C3" s="3">
-        <v>20.656972941774949</v>
+        <v>2200</v>
       </c>
       <c r="D3" s="3">
-        <v>19.847001447312667</v>
+        <v>2200</v>
       </c>
       <c r="E3" s="3">
-        <v>19.068789389418885</v>
+        <v>2200</v>
       </c>
       <c r="F3" s="3">
-        <v>18.321091462773541</v>
+        <v>2200</v>
       </c>
       <c r="G3" s="3">
-        <v>17.60271119117661</v>
+        <v>2200</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -663,22 +897,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>31</v>
+        <v>2200</v>
       </c>
       <c r="C4" s="3">
-        <v>29.78447261372202</v>
+        <v>2200</v>
       </c>
       <c r="D4" s="3">
-        <v>28.616606737700245</v>
+        <v>1095.2919438536919</v>
       </c>
       <c r="E4" s="3">
-        <v>27.494533538163648</v>
+        <v>2200</v>
       </c>
       <c r="F4" s="3">
-        <v>26.416457457952554</v>
+        <v>2200</v>
       </c>
       <c r="G4" s="3">
-        <v>25.380653345417436</v>
+        <v>2200</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -687,22 +921,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>39.5</v>
+        <v>2200</v>
       </c>
       <c r="C5" s="3">
-        <v>37.951182846517078</v>
+        <v>2200</v>
       </c>
       <c r="D5" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E5" s="3">
-        <v>35.033357249836669</v>
+        <v>2200</v>
       </c>
       <c r="F5" s="3">
-        <v>33.659679664165346</v>
+        <v>2200</v>
       </c>
       <c r="G5" s="3">
-        <v>32.339864746580282</v>
+        <v>2200</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -711,22 +945,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>47</v>
+        <v>2200</v>
       </c>
       <c r="C6" s="3">
-        <v>45.157103640159193</v>
+        <v>40.265232784342565</v>
       </c>
       <c r="D6" s="3">
-        <v>43.386468280171883</v>
+        <v>2200</v>
       </c>
       <c r="E6" s="3">
-        <v>41.685260525706404</v>
+        <v>2200</v>
       </c>
       <c r="F6" s="3">
-        <v>40.050758081411935</v>
+        <v>2200</v>
       </c>
       <c r="G6" s="3">
-        <v>38.480345394545978</v>
+        <v>2200</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -735,22 +969,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>53.5</v>
+        <v>2200</v>
       </c>
       <c r="C7" s="3">
-        <v>51.402234994649291</v>
+        <v>2200</v>
       </c>
       <c r="D7" s="3">
-        <v>49.386724531685012</v>
+        <v>21.681359786698184</v>
       </c>
       <c r="E7" s="3">
-        <v>47.450243364367928</v>
+        <v>2200</v>
       </c>
       <c r="F7" s="3">
-        <v>45.589692709692308</v>
+        <v>2200</v>
       </c>
       <c r="G7" s="3">
-        <v>43.802095289672025</v>
+        <v>2200</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -759,22 +993,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3">
-        <v>56.686576909987068</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3">
-        <v>54.463864436811512</v>
+        <v>2200</v>
       </c>
       <c r="E8" s="3">
-        <v>52.32830576631229</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="3">
-        <v>50.276483549006471</v>
+        <v>2200</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -783,22 +1017,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>9.8067658599140586</v>
       </c>
       <c r="C9" s="3">
-        <v>6.0189870146067921E-2</v>
+        <v>7.8086902778934242</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="F9" s="3">
-        <v>54.111130599354418</v>
+        <v>2200</v>
       </c>
       <c r="G9" s="3">
-        <v>51.989402820451843</v>
+        <v>2200</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -807,22 +1041,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="C10" s="3">
-        <v>3.3217285178947451</v>
+        <v>2200</v>
       </c>
       <c r="D10" s="3">
-        <v>61.848795207904594</v>
+        <v>2200</v>
       </c>
       <c r="E10" s="3">
-        <v>59.42366926004955</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="3">
-        <v>57.093633860736162</v>
+        <v>2200</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -831,22 +1065,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E11" s="3">
-        <v>0.7761707970911953</v>
+        <v>2200</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="G11" s="3">
-        <v>56.901787338919739</v>
+        <v>2200</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -860,7 +1094,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1132,7 +1366,7 @@
   <dimension ref="B1:AF25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1144,46 +1378,46 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="21">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="22">
         <v>3</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="11">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="22">
         <v>4</v>
       </c>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="11">
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="22">
         <v>5</v>
       </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="13"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="24"/>
     </row>
     <row r="2" spans="2:32" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
@@ -1303,40 +1537,40 @@
         <v>9.0060382838577997</v>
       </c>
       <c r="I3" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>10.568683830675555</v>
+        <v>8.647104952370908</v>
       </c>
       <c r="K3">
-        <v>10.154279810252993</v>
+        <v>8.3080471174797221</v>
       </c>
       <c r="L3">
-        <v>9.7561248038887314</v>
+        <v>7.9822839304544173</v>
       </c>
       <c r="M3">
-        <v>9.3735816786283248</v>
+        <v>7.6692941006959021</v>
       </c>
       <c r="N3" s="6">
-        <v>9.0060382838577997</v>
+        <v>7.3685767777018363</v>
       </c>
       <c r="O3" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3">
-        <v>10.568683830675555</v>
+        <v>11.529473269827879</v>
       </c>
       <c r="Q3">
-        <v>10.154279810252993</v>
+        <v>11.07739615663963</v>
       </c>
       <c r="R3">
-        <v>9.7561248038887314</v>
+        <v>10.64304524060589</v>
       </c>
       <c r="S3">
-        <v>9.3735816786283248</v>
+        <v>10.225725467594536</v>
       </c>
       <c r="T3" s="6">
-        <v>9.0060382838577997</v>
+        <v>9.8247690369357823</v>
       </c>
       <c r="U3" s="5">
         <v>11</v>
@@ -1357,22 +1591,22 @@
         <v>9.0060382838577997</v>
       </c>
       <c r="AA3" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3">
-        <v>10.568683830675555</v>
+        <v>9.6078943915232315</v>
       </c>
       <c r="AC3">
-        <v>10.154279810252993</v>
+        <v>9.2311634638663573</v>
       </c>
       <c r="AD3">
-        <v>9.7561248038887314</v>
+        <v>8.8692043671715748</v>
       </c>
       <c r="AE3">
-        <v>9.3735816786283248</v>
+        <v>8.5214378896621135</v>
       </c>
       <c r="AF3" s="6">
-        <v>9.0060382838577997</v>
+        <v>8.1873075307798189</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.45">
@@ -1398,40 +1632,40 @@
         <v>17.60271119117661</v>
       </c>
       <c r="I4" s="5">
-        <v>21.5</v>
+        <v>17.5</v>
       </c>
       <c r="J4">
-        <v>20.656972941774949</v>
+        <v>16.813815185165655</v>
       </c>
       <c r="K4">
-        <v>19.847001447312667</v>
+        <v>16.154536061766127</v>
       </c>
       <c r="L4">
-        <v>19.068789389418885</v>
+        <v>15.521107642550255</v>
       </c>
       <c r="M4">
-        <v>18.321091462773545</v>
+        <v>14.912516306908699</v>
       </c>
       <c r="N4" s="6">
-        <v>17.60271119117661</v>
+        <v>14.327788178864681</v>
       </c>
       <c r="O4" s="5">
-        <v>21.5</v>
+        <v>23.5</v>
       </c>
       <c r="P4">
-        <v>20.656972941774949</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="Q4">
-        <v>19.847001447312667</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="R4">
-        <v>19.068789389418885</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="S4">
-        <v>18.321091462773545</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="T4" s="6">
-        <v>17.60271119117661</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="U4" s="5">
         <v>21.5</v>
@@ -1452,22 +1686,22 @@
         <v>17.60271119117661</v>
       </c>
       <c r="AA4" s="5">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB4">
-        <v>20.656972941774949</v>
+        <v>18.735394063470302</v>
       </c>
       <c r="AC4">
-        <v>19.847001447312667</v>
+        <v>18.000768754539397</v>
       </c>
       <c r="AD4">
-        <v>19.068789389418885</v>
+        <v>17.294948515984572</v>
       </c>
       <c r="AE4">
-        <v>18.321091462773545</v>
+        <v>16.616803884841122</v>
       </c>
       <c r="AF4" s="6">
-        <v>17.60271119117661</v>
+        <v>15.965249685020645</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.45">
@@ -1493,40 +1727,40 @@
         <v>25.380653345417436</v>
       </c>
       <c r="I5" s="5">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5">
-        <v>29.78447261372202</v>
+        <v>24.019735978808079</v>
       </c>
       <c r="K5">
-        <v>28.616606737985709</v>
+        <v>23.077908659665894</v>
       </c>
       <c r="L5">
-        <v>27.494533538231881</v>
+        <v>22.173010917928938</v>
       </c>
       <c r="M5">
-        <v>26.416457457952554</v>
+        <v>21.303594724155282</v>
       </c>
       <c r="N5" s="6">
-        <v>25.380653345417436</v>
+        <v>20.468268826949547</v>
       </c>
       <c r="O5" s="5">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P5">
-        <v>29.78447261372202</v>
+        <v>32.666840931178989</v>
       </c>
       <c r="Q5">
-        <v>28.616606737985709</v>
+        <v>31.385955777145615</v>
       </c>
       <c r="R5">
-        <v>27.494533538231881</v>
+        <v>30.155294848383356</v>
       </c>
       <c r="S5">
-        <v>26.416457457952554</v>
+        <v>28.972888824851186</v>
       </c>
       <c r="T5" s="6">
-        <v>25.380653345417436</v>
+        <v>27.836845604651383</v>
       </c>
       <c r="U5" s="5">
         <v>31</v>
@@ -1547,22 +1781,22 @@
         <v>25.380653345417436</v>
       </c>
       <c r="AA5" s="5">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AB5">
-        <v>29.78447261372202</v>
+        <v>26.902104296265048</v>
       </c>
       <c r="AC5">
-        <v>28.616606737985709</v>
+        <v>25.8472576988258</v>
       </c>
       <c r="AD5">
-        <v>27.494533538231881</v>
+        <v>24.833772228080409</v>
       </c>
       <c r="AE5">
-        <v>26.416457457952554</v>
+        <v>23.860026091053918</v>
       </c>
       <c r="AF5" s="6">
-        <v>25.380653345417436</v>
+        <v>22.924461086183491</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.45">
@@ -1588,40 +1822,40 @@
         <v>32.339864746580282</v>
       </c>
       <c r="I6" s="5">
-        <v>39.5</v>
+        <v>31.5</v>
       </c>
       <c r="J6">
-        <v>37.951182846516765</v>
+        <v>30.264867333298181</v>
       </c>
       <c r="K6">
-        <v>36.463095682272112</v>
+        <v>29.078164911179027</v>
       </c>
       <c r="L6">
-        <v>35.033357250327718</v>
+        <v>27.937993756590462</v>
       </c>
       <c r="M6">
-        <v>33.659679664165346</v>
+        <v>26.842529352435658</v>
       </c>
       <c r="N6" s="6">
-        <v>32.339864746580282</v>
+        <v>25.790018721956429</v>
       </c>
       <c r="O6" s="5">
-        <v>39.5</v>
+        <v>43.5</v>
       </c>
       <c r="P6">
-        <v>37.951182846516765</v>
+        <v>41.794340603126059</v>
       </c>
       <c r="Q6">
-        <v>36.463095682272112</v>
+        <v>40.155561067818653</v>
       </c>
       <c r="R6">
-        <v>35.033357250327718</v>
+        <v>38.581038997196352</v>
       </c>
       <c r="S6">
-        <v>33.659679664165346</v>
+        <v>37.068254820030191</v>
       </c>
       <c r="T6" s="6">
-        <v>32.339864746580282</v>
+        <v>35.614787758892206</v>
       </c>
       <c r="U6" s="5">
         <v>39.5</v>
@@ -1642,22 +1876,22 @@
         <v>32.339864746580282</v>
       </c>
       <c r="AA6" s="5">
-        <v>39.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB6">
-        <v>37.951182846516765</v>
+        <v>34.108025089907471</v>
       </c>
       <c r="AC6">
-        <v>36.463095682272112</v>
+        <v>32.770630296725571</v>
       </c>
       <c r="AD6">
-        <v>35.033357250327718</v>
+        <v>31.485675503459092</v>
       </c>
       <c r="AE6">
-        <v>33.659679664165346</v>
+        <v>30.251104508300504</v>
       </c>
       <c r="AF6" s="6">
-        <v>32.339864746580282</v>
+        <v>29.064941734268356</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.45">
@@ -1683,40 +1917,40 @@
         <v>38.480345394665143</v>
       </c>
       <c r="I7" s="5">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J7">
-        <v>45.157103640159193</v>
+        <v>35.549209248635961</v>
       </c>
       <c r="K7">
-        <v>43.386468280171883</v>
+        <v>34.155304816305524</v>
       </c>
       <c r="L7">
-        <v>41.685260525706404</v>
+        <v>32.816056158534828</v>
       </c>
       <c r="M7">
-        <v>40.050758081411935</v>
+        <v>31.529320191749818</v>
       </c>
       <c r="N7" s="6">
-        <v>38.480345394665143</v>
+        <v>30.293037863885328</v>
       </c>
       <c r="O7" s="5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P7">
-        <v>45.157103640159193</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="Q7">
-        <v>43.386468280171883</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="R7">
-        <v>41.685260525706404</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="S7">
-        <v>40.050758081411935</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="T7" s="6">
-        <v>38.480345394665143</v>
+        <v>42.573999160055052</v>
       </c>
       <c r="U7" s="5">
         <v>47</v>
@@ -1737,22 +1971,22 @@
         <v>38.480345394665143</v>
       </c>
       <c r="AA7" s="5">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB7">
-        <v>45.157103640159193</v>
+        <v>40.353156444397577</v>
       </c>
       <c r="AC7">
-        <v>43.386468280171883</v>
+        <v>38.7708865482387</v>
       </c>
       <c r="AD7">
-        <v>41.685260525706404</v>
+        <v>37.250658342120616</v>
       </c>
       <c r="AE7">
-        <v>40.050758081411935</v>
+        <v>35.790039136580873</v>
       </c>
       <c r="AF7" s="6">
-        <v>38.480345394665143</v>
+        <v>34.386691629275234</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.45">
@@ -1778,40 +2012,40 @@
         <v>43.802095289672025</v>
       </c>
       <c r="I8" s="5">
-        <v>53.5</v>
+        <v>41.5</v>
       </c>
       <c r="J8">
-        <v>51.402234994649291</v>
+        <v>39.872761724821409</v>
       </c>
       <c r="K8">
-        <v>49.386724531685012</v>
+        <v>38.309328375045382</v>
       </c>
       <c r="L8">
-        <v>47.450243364367928</v>
+        <v>36.807198123762035</v>
       </c>
       <c r="M8">
-        <v>45.589692709692308</v>
+        <v>35.363967242097772</v>
       </c>
       <c r="N8" s="6">
-        <v>43.802095289672025</v>
+        <v>33.977326252736248</v>
       </c>
       <c r="O8" s="5">
-        <v>53.5</v>
+        <v>59.5</v>
       </c>
       <c r="P8">
-        <v>51.402234994649291</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="Q8">
-        <v>49.386724531685012</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="R8">
-        <v>47.450243364367928</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="S8">
-        <v>45.589692709692308</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="T8" s="6">
-        <v>43.802095289672025</v>
+        <v>48.71447980813992</v>
       </c>
       <c r="U8" s="5">
         <v>53.5</v>
@@ -1832,22 +2066,22 @@
         <v>43.802095289672025</v>
       </c>
       <c r="AA8" s="5">
-        <v>53.5</v>
+        <v>47.5</v>
       </c>
       <c r="AB8">
-        <v>51.402234994649291</v>
+        <v>45.637498359735353</v>
       </c>
       <c r="AC8">
-        <v>49.386724531685012</v>
+        <v>43.8480264533652</v>
       </c>
       <c r="AD8">
-        <v>47.450243364367928</v>
+        <v>42.128720744064978</v>
       </c>
       <c r="AE8">
-        <v>45.589692709692308</v>
+        <v>40.476829975895036</v>
       </c>
       <c r="AF8" s="6">
-        <v>43.802095289672025</v>
+        <v>38.889710771204136</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.45">
@@ -1873,40 +2107,40 @@
         <v>48.305114431600927</v>
       </c>
       <c r="I9" s="5">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J9">
-        <v>56.686576909987068</v>
+        <v>43.235524761854542</v>
       </c>
       <c r="K9">
-        <v>54.463864436811512</v>
+        <v>41.540235587398612</v>
       </c>
       <c r="L9">
-        <v>52.32830576631229</v>
+        <v>39.911419652272087</v>
       </c>
       <c r="M9">
-        <v>50.276483549006471</v>
+        <v>38.346470503479509</v>
       </c>
       <c r="N9" s="6">
-        <v>48.305114431600927</v>
+        <v>36.842883888509185</v>
       </c>
       <c r="O9" s="5">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P9">
-        <v>56.686576909987068</v>
+        <v>63.412102984053327</v>
       </c>
       <c r="Q9">
-        <v>54.463864436811512</v>
+        <v>60.925678861517959</v>
       </c>
       <c r="R9">
-        <v>52.32830576631229</v>
+        <v>58.536748823332395</v>
       </c>
       <c r="S9">
-        <v>50.276483549006471</v>
+        <v>56.241490071769945</v>
       </c>
       <c r="T9" s="6">
-        <v>48.305114431600927</v>
+        <v>54.036229703146802</v>
       </c>
       <c r="U9" s="5">
         <v>59</v>
@@ -1927,22 +2161,22 @@
         <v>48.305114431600927</v>
       </c>
       <c r="AA9" s="5">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB9">
-        <v>56.686576909987068</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="AC9">
-        <v>54.463864436811512</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="AD9">
-        <v>52.32830576631229</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="AE9">
-        <v>50.276483549006471</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="AF9" s="6">
-        <v>48.305114431600927</v>
+        <v>42.573999160055052</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
@@ -1968,40 +2202,40 @@
         <v>51.989402820451843</v>
       </c>
       <c r="I10" s="5">
-        <v>63.5</v>
+        <v>47.5</v>
       </c>
       <c r="J10">
-        <v>61.010129386172522</v>
+        <v>45.637498359735353</v>
       </c>
       <c r="K10">
-        <v>58.617887995551371</v>
+        <v>43.8480264533652</v>
       </c>
       <c r="L10">
-        <v>56.319447731539498</v>
+        <v>42.128720744064978</v>
       </c>
       <c r="M10">
-        <v>54.111130599354418</v>
+        <v>40.476829975895036</v>
       </c>
       <c r="N10" s="6">
-        <v>51.989402820451843</v>
+        <v>38.889710771204136</v>
       </c>
       <c r="O10" s="5">
-        <v>63.5</v>
+        <v>71.5</v>
       </c>
       <c r="P10">
-        <v>61.010129386172522</v>
+        <v>68.696444899391111</v>
       </c>
       <c r="Q10">
-        <v>58.617887995551371</v>
+        <v>66.002818766644452</v>
       </c>
       <c r="R10">
-        <v>56.319447731539498</v>
+        <v>63.414811225276758</v>
       </c>
       <c r="S10">
-        <v>54.111130599354418</v>
+        <v>60.928280911084109</v>
       </c>
       <c r="T10" s="6">
-        <v>51.989402820451843</v>
+        <v>58.539248845075697</v>
       </c>
       <c r="U10" s="5">
         <v>63.5</v>
@@ -2022,22 +2256,22 @@
         <v>51.989402820451843</v>
       </c>
       <c r="AA10" s="5">
-        <v>63.5</v>
+        <v>55.5</v>
       </c>
       <c r="AB10">
-        <v>61.010129386172522</v>
+        <v>53.323813872953934</v>
       </c>
       <c r="AC10">
-        <v>58.617887995551371</v>
+        <v>51.232957224458282</v>
       </c>
       <c r="AD10">
-        <v>56.319447731539498</v>
+        <v>49.224084237802238</v>
       </c>
       <c r="AE10">
-        <v>54.111130599354418</v>
+        <v>47.293980287624727</v>
       </c>
       <c r="AF10" s="6">
-        <v>51.989402820451843</v>
+        <v>45.43955679582799</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.45">
@@ -2063,40 +2297,40 @@
         <v>54.854960456224781</v>
       </c>
       <c r="I11" s="5">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="J11">
-        <v>64.372892423205656</v>
+        <v>47.078682518463836</v>
       </c>
       <c r="K11">
-        <v>61.848795207904594</v>
+        <v>45.232700972945153</v>
       </c>
       <c r="L11">
-        <v>59.42366926004955</v>
+        <v>43.459101399140714</v>
       </c>
       <c r="M11">
-        <v>57.093633860736162</v>
+        <v>41.755045659344354</v>
       </c>
       <c r="N11" s="6">
-        <v>54.854960456224781</v>
+        <v>40.117806900821108</v>
       </c>
       <c r="O11" s="5">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="P11">
-        <v>64.372892423205656</v>
+        <v>73.019997375576565</v>
       </c>
       <c r="Q11">
-        <v>61.848795207904594</v>
+        <v>70.156842325384318</v>
       </c>
       <c r="R11">
-        <v>59.42366926004955</v>
+        <v>67.405953190503965</v>
       </c>
       <c r="S11">
-        <v>57.093633860736162</v>
+        <v>64.762927961432069</v>
       </c>
       <c r="T11" s="6">
-        <v>54.854960456224781</v>
+        <v>62.223537233926621</v>
       </c>
       <c r="U11" s="5">
         <v>67</v>
@@ -2117,22 +2351,22 @@
         <v>54.854960456224781</v>
       </c>
       <c r="AA11" s="5">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AB11">
-        <v>64.372892423205656</v>
+        <v>55.725787470834746</v>
       </c>
       <c r="AC11">
-        <v>61.848795207904594</v>
+        <v>53.540748090424877</v>
       </c>
       <c r="AD11">
-        <v>59.42366926004955</v>
+        <v>51.441385329595136</v>
       </c>
       <c r="AE11">
-        <v>57.093633860736162</v>
+        <v>49.424339760040255</v>
       </c>
       <c r="AF11" s="6">
-        <v>54.854960456224781</v>
+        <v>47.486383678522948</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.45">
@@ -2158,40 +2392,40 @@
         <v>56.901787338919739</v>
       </c>
       <c r="I12" s="7">
-        <v>69.5</v>
+        <v>49.5</v>
       </c>
       <c r="J12" s="8">
-        <v>66.774866021086467</v>
+        <v>47.559077238039997</v>
       </c>
       <c r="K12" s="8">
-        <v>64.156586073871182</v>
+        <v>45.694259146138471</v>
       </c>
       <c r="L12" s="8">
-        <v>61.640970351842448</v>
+        <v>43.902561617499295</v>
       </c>
       <c r="M12" s="8">
-        <v>59.223993333151689</v>
+        <v>42.181117553827463</v>
       </c>
       <c r="N12" s="9">
-        <v>56.901787338919739</v>
+        <v>40.527172277360101</v>
       </c>
       <c r="O12" s="7">
-        <v>69.5</v>
+        <v>79.5</v>
       </c>
       <c r="P12" s="8">
-        <v>66.774866021086467</v>
+        <v>76.382760412609699</v>
       </c>
       <c r="Q12" s="8">
-        <v>64.156586073871182</v>
+        <v>73.387749537737548</v>
       </c>
       <c r="R12" s="8">
-        <v>61.640970351842448</v>
+        <v>70.510174719014017</v>
       </c>
       <c r="S12" s="8">
-        <v>59.223993333151689</v>
+        <v>67.745431222813806</v>
       </c>
       <c r="T12" s="9">
-        <v>56.901787338919739</v>
+        <v>65.089094869699551</v>
       </c>
       <c r="U12" s="7">
         <v>69.5</v>
@@ -2212,68 +2446,68 @@
         <v>56.901787338919739</v>
       </c>
       <c r="AA12" s="7">
-        <v>69.5</v>
+        <v>59.5</v>
       </c>
       <c r="AB12" s="8">
-        <v>66.774866021086467</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="AC12" s="8">
-        <v>64.156586073871182</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="AD12" s="8">
-        <v>61.640970351842448</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="AE12" s="8">
-        <v>59.223993333151689</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="AF12" s="9">
-        <v>56.901787338919739</v>
+        <v>48.71447980813992</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="21">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21">
         <v>7</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21">
         <v>8</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21">
         <v>9</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10">
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21">
         <v>10</v>
       </c>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
     </row>
     <row r="15" spans="2:32" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
@@ -2375,58 +2609,58 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>10.568683830675555</v>
+        <v>6.7255260740662619</v>
       </c>
       <c r="E16">
-        <v>10.154279810252993</v>
+        <v>6.46181442470645</v>
       </c>
       <c r="F16">
-        <v>9.7561248038887314</v>
+        <v>6.2084430570201024</v>
       </c>
       <c r="G16">
-        <v>9.3735816786283248</v>
+        <v>5.9650065227634794</v>
       </c>
       <c r="H16">
-        <v>9.0060382838577997</v>
+        <v>5.7311152715458729</v>
       </c>
       <c r="I16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>10.568683830675555</v>
+        <v>6.7255260740662619</v>
       </c>
       <c r="K16">
-        <v>10.154279810252993</v>
+        <v>6.46181442470645</v>
       </c>
       <c r="L16">
-        <v>9.7561248038887314</v>
+        <v>6.2084430570201024</v>
       </c>
       <c r="M16">
-        <v>9.3735816786283248</v>
+        <v>5.9650065227634794</v>
       </c>
       <c r="N16">
-        <v>9.0060382838577997</v>
+        <v>5.7311152715458729</v>
       </c>
       <c r="O16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="P16">
-        <v>10.568683830675555</v>
+        <v>5.7647366349139393</v>
       </c>
       <c r="Q16">
-        <v>10.154279810252993</v>
+        <v>5.5386980783198148</v>
       </c>
       <c r="R16">
-        <v>9.7561248038887314</v>
+        <v>5.3215226203029449</v>
       </c>
       <c r="S16">
-        <v>9.3735816786283248</v>
+        <v>5.1128627337972681</v>
       </c>
       <c r="T16">
-        <v>9.0060382838577997</v>
+        <v>4.9123845184678911</v>
       </c>
       <c r="U16">
         <v>11</v>
@@ -2447,22 +2681,22 @@
         <v>9.0060382838577997</v>
       </c>
       <c r="AA16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16">
-        <v>10.568683830675555</v>
+        <v>9.6078943915232315</v>
       </c>
       <c r="AC16">
-        <v>10.154279810252993</v>
+        <v>9.2311634638663573</v>
       </c>
       <c r="AD16">
-        <v>9.7561248038887314</v>
+        <v>8.8692043671715748</v>
       </c>
       <c r="AE16">
-        <v>9.3735816786283248</v>
+        <v>8.5214378896621135</v>
       </c>
       <c r="AF16">
-        <v>9.0060382838577997</v>
+        <v>8.1873075307798189</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.45">
@@ -2470,58 +2704,58 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>21.5</v>
+        <v>13.5</v>
       </c>
       <c r="D17">
-        <v>20.656972941774949</v>
+        <v>12.970657428556363</v>
       </c>
       <c r="E17">
-        <v>19.847001447312667</v>
+        <v>12.462070676219582</v>
       </c>
       <c r="F17">
-        <v>19.068789389418885</v>
+        <v>11.973425895681626</v>
       </c>
       <c r="G17">
-        <v>18.321091462773545</v>
+        <v>11.503941151043854</v>
       </c>
       <c r="H17">
-        <v>17.60271119117661</v>
+        <v>11.052865166552754</v>
       </c>
       <c r="I17">
-        <v>21.5</v>
+        <v>13.5</v>
       </c>
       <c r="J17">
-        <v>20.656972941774949</v>
+        <v>12.970657428556363</v>
       </c>
       <c r="K17">
-        <v>19.847001447312667</v>
+        <v>12.462070676219582</v>
       </c>
       <c r="L17">
-        <v>19.068789389418885</v>
+        <v>11.973425895681626</v>
       </c>
       <c r="M17">
-        <v>18.321091462773545</v>
+        <v>11.503941151043854</v>
       </c>
       <c r="N17">
-        <v>17.60271119117661</v>
+        <v>11.052865166552754</v>
       </c>
       <c r="O17">
-        <v>21.5</v>
+        <v>11.5</v>
       </c>
       <c r="P17">
-        <v>20.656972941774949</v>
+        <v>11.049078550251716</v>
       </c>
       <c r="Q17">
-        <v>19.847001447312667</v>
+        <v>10.615837983446312</v>
       </c>
       <c r="R17">
-        <v>19.068789389418885</v>
+        <v>10.199585022247311</v>
       </c>
       <c r="S17">
-        <v>18.321091462773545</v>
+        <v>9.7996535731114314</v>
       </c>
       <c r="T17">
-        <v>17.60271119117661</v>
+        <v>9.415403660396791</v>
       </c>
       <c r="U17">
         <v>21.5</v>
@@ -2542,22 +2776,22 @@
         <v>17.60271119117661</v>
       </c>
       <c r="AA17">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB17">
-        <v>20.656972941774949</v>
+        <v>18.735394063470302</v>
       </c>
       <c r="AC17">
-        <v>19.847001447312667</v>
+        <v>18.000768754539397</v>
       </c>
       <c r="AD17">
-        <v>19.068789389418885</v>
+        <v>17.294948515984572</v>
       </c>
       <c r="AE17">
-        <v>18.321091462773545</v>
+        <v>16.616803884841122</v>
       </c>
       <c r="AF17">
-        <v>17.60271119117661</v>
+        <v>15.965249685020645</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.45">
@@ -2565,58 +2799,58 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>29.78447261372202</v>
+        <v>18.254999343894141</v>
       </c>
       <c r="E18">
-        <v>28.616606737985709</v>
+        <v>17.539210581346079</v>
       </c>
       <c r="F18">
-        <v>27.494533538231881</v>
+        <v>16.851488297625991</v>
       </c>
       <c r="G18">
-        <v>26.416457457952554</v>
+        <v>16.190731990358017</v>
       </c>
       <c r="H18">
-        <v>25.380653345417436</v>
+        <v>15.555884308481655</v>
       </c>
       <c r="I18">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J18">
-        <v>29.78447261372202</v>
+        <v>18.254999343894141</v>
       </c>
       <c r="K18">
-        <v>28.616606737985709</v>
+        <v>17.539210581346079</v>
       </c>
       <c r="L18">
-        <v>27.494533538231881</v>
+        <v>16.851488297625991</v>
       </c>
       <c r="M18">
-        <v>26.416457457952554</v>
+        <v>16.190731990358017</v>
       </c>
       <c r="N18">
-        <v>25.380653345417436</v>
+        <v>15.555884308481655</v>
       </c>
       <c r="O18">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="P18">
-        <v>29.78447261372202</v>
+        <v>15.372631026437171</v>
       </c>
       <c r="Q18">
-        <v>28.616606737985709</v>
+        <v>14.769861542186172</v>
       </c>
       <c r="R18">
-        <v>27.494533538231881</v>
+        <v>14.19072698747452</v>
       </c>
       <c r="S18">
-        <v>26.416457457952554</v>
+        <v>13.634300623459382</v>
       </c>
       <c r="T18">
-        <v>25.380653345417436</v>
+        <v>13.099692049247709</v>
       </c>
       <c r="U18">
         <v>31</v>
@@ -2637,22 +2871,22 @@
         <v>25.380653345417436</v>
       </c>
       <c r="AA18">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AB18">
-        <v>29.78447261372202</v>
+        <v>26.902104296265048</v>
       </c>
       <c r="AC18">
-        <v>28.616606737985709</v>
+        <v>25.8472576988258</v>
       </c>
       <c r="AD18">
-        <v>27.494533538231881</v>
+        <v>24.833772228080409</v>
       </c>
       <c r="AE18">
-        <v>26.416457457952554</v>
+        <v>23.860026091053918</v>
       </c>
       <c r="AF18">
-        <v>25.380653345417436</v>
+        <v>22.924461086183491</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.45">
@@ -2660,58 +2894,58 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>39.5</v>
+        <v>23.5</v>
       </c>
       <c r="D19">
-        <v>37.951182846516765</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="E19">
-        <v>36.463095682272112</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="F19">
-        <v>35.033357250327718</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="G19">
-        <v>33.659679664165346</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="H19">
-        <v>32.339864746580282</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="I19">
-        <v>39.5</v>
+        <v>23.5</v>
       </c>
       <c r="J19">
-        <v>37.951182846516765</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="K19">
-        <v>36.463095682272112</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="L19">
-        <v>35.033357250327718</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="M19">
-        <v>33.659679664165346</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="N19">
-        <v>32.339864746580282</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="O19">
-        <v>39.5</v>
+        <v>19.5</v>
       </c>
       <c r="P19">
-        <v>37.951182846516765</v>
+        <v>18.735394063470302</v>
       </c>
       <c r="Q19">
-        <v>36.463095682272112</v>
+        <v>18.000768754539397</v>
       </c>
       <c r="R19">
-        <v>35.033357250327718</v>
+        <v>17.294948515984572</v>
       </c>
       <c r="S19">
-        <v>33.659679664165346</v>
+        <v>16.616803884841122</v>
       </c>
       <c r="T19">
-        <v>32.339864746580282</v>
+        <v>15.965249685020645</v>
       </c>
       <c r="U19">
         <v>39.5</v>
@@ -2732,22 +2966,22 @@
         <v>32.339864746580282</v>
       </c>
       <c r="AA19">
-        <v>39.5</v>
+        <v>35.5</v>
       </c>
       <c r="AB19">
-        <v>37.951182846516765</v>
+        <v>34.108025089907471</v>
       </c>
       <c r="AC19">
-        <v>36.463095682272112</v>
+        <v>32.770630296725571</v>
       </c>
       <c r="AD19">
-        <v>35.033357250327718</v>
+        <v>31.485675503459092</v>
       </c>
       <c r="AE19">
-        <v>33.659679664165346</v>
+        <v>30.251104508300504</v>
       </c>
       <c r="AF19">
-        <v>32.339864746580282</v>
+        <v>29.064941734268356</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.45">
@@ -2755,58 +2989,58 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>45.157103640159193</v>
+        <v>25.941314857112726</v>
       </c>
       <c r="E20">
-        <v>43.386468280171883</v>
+        <v>24.924141352439165</v>
       </c>
       <c r="F20">
-        <v>41.685260525706404</v>
+        <v>23.946851791363251</v>
       </c>
       <c r="G20">
-        <v>40.050758081411935</v>
+        <v>23.007882302087708</v>
       </c>
       <c r="H20">
-        <v>38.480345394665143</v>
+        <v>22.105730333105509</v>
       </c>
       <c r="I20">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="J20">
-        <v>45.157103640159193</v>
+        <v>25.941314857112726</v>
       </c>
       <c r="K20">
-        <v>43.386468280171883</v>
+        <v>24.924141352439165</v>
       </c>
       <c r="L20">
-        <v>41.685260525706404</v>
+        <v>23.946851791363251</v>
       </c>
       <c r="M20">
-        <v>40.050758081411935</v>
+        <v>23.007882302087708</v>
       </c>
       <c r="N20">
-        <v>38.480345394665143</v>
+        <v>22.105730333105509</v>
       </c>
       <c r="O20">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="P20">
-        <v>45.157103640159193</v>
+        <v>21.13736766135111</v>
       </c>
       <c r="Q20">
-        <v>43.386468280171883</v>
+        <v>20.308559620505985</v>
       </c>
       <c r="R20">
-        <v>41.685260525706404</v>
+        <v>19.512249607777463</v>
       </c>
       <c r="S20">
-        <v>40.050758081411935</v>
+        <v>18.74716335725665</v>
       </c>
       <c r="T20">
-        <v>38.480345394665143</v>
+        <v>18.012076567715599</v>
       </c>
       <c r="U20">
         <v>47</v>
@@ -2827,22 +3061,22 @@
         <v>38.480345394665143</v>
       </c>
       <c r="AA20">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AB20">
-        <v>45.157103640159193</v>
+        <v>40.353156444397577</v>
       </c>
       <c r="AC20">
-        <v>43.386468280171883</v>
+        <v>38.7708865482387</v>
       </c>
       <c r="AD20">
-        <v>41.685260525706404</v>
+        <v>37.250658342120616</v>
       </c>
       <c r="AE20">
-        <v>40.050758081411935</v>
+        <v>35.790039136580873</v>
       </c>
       <c r="AF20">
-        <v>38.480345394665143</v>
+        <v>34.386691629275234</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.45">
@@ -2850,58 +3084,58 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>53.5</v>
+        <v>29.5</v>
       </c>
       <c r="D21">
-        <v>51.402234994649291</v>
+        <v>28.343288454993534</v>
       </c>
       <c r="E21">
-        <v>49.386724531685012</v>
+        <v>27.231932218405756</v>
       </c>
       <c r="F21">
-        <v>47.450243364367928</v>
+        <v>26.164152883156145</v>
       </c>
       <c r="G21">
-        <v>45.589692709692308</v>
+        <v>25.138241774503236</v>
       </c>
       <c r="H21">
-        <v>43.802095289672025</v>
+        <v>24.152557215800464</v>
       </c>
       <c r="I21">
-        <v>53.5</v>
+        <v>29.5</v>
       </c>
       <c r="J21">
-        <v>51.402234994649291</v>
+        <v>28.343288454993534</v>
       </c>
       <c r="K21">
-        <v>49.386724531685012</v>
+        <v>27.231932218405756</v>
       </c>
       <c r="L21">
-        <v>47.450243364367928</v>
+        <v>26.164152883156145</v>
       </c>
       <c r="M21">
-        <v>45.589692709692308</v>
+        <v>25.138241774503236</v>
       </c>
       <c r="N21">
-        <v>43.802095289672025</v>
+        <v>24.152557215800464</v>
       </c>
       <c r="O21">
-        <v>53.5</v>
+        <v>23.5</v>
       </c>
       <c r="P21">
-        <v>51.402234994649291</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="Q21">
-        <v>49.386724531685012</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="R21">
-        <v>47.450243364367928</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="S21">
-        <v>45.589692709692308</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="T21">
-        <v>43.802095289672025</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="U21">
         <v>53.5</v>
@@ -2922,22 +3156,22 @@
         <v>43.802095289672025</v>
       </c>
       <c r="AA21">
-        <v>53.5</v>
+        <v>47.5</v>
       </c>
       <c r="AB21">
-        <v>51.402234994649291</v>
+        <v>45.637498359735353</v>
       </c>
       <c r="AC21">
-        <v>49.386724531685012</v>
+        <v>43.8480264533652</v>
       </c>
       <c r="AD21">
-        <v>47.450243364367928</v>
+        <v>42.128720744064978</v>
       </c>
       <c r="AE21">
-        <v>45.589692709692308</v>
+        <v>40.476829975895036</v>
       </c>
       <c r="AF21">
-        <v>43.802095289672025</v>
+        <v>38.889710771204136</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.45">
@@ -2945,58 +3179,58 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>56.686576909987068</v>
+        <v>29.78447261372202</v>
       </c>
       <c r="E22">
-        <v>54.463864436811512</v>
+        <v>28.616606737985709</v>
       </c>
       <c r="F22">
-        <v>52.32830576631229</v>
+        <v>27.494533538231881</v>
       </c>
       <c r="G22">
-        <v>50.276483549006471</v>
+        <v>26.416457457952554</v>
       </c>
       <c r="H22">
-        <v>48.305114431600927</v>
+        <v>25.380653345417436</v>
       </c>
       <c r="I22">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="J22">
-        <v>56.686576909987068</v>
+        <v>29.78447261372202</v>
       </c>
       <c r="K22">
-        <v>54.463864436811512</v>
+        <v>28.616606737985709</v>
       </c>
       <c r="L22">
-        <v>52.32830576631229</v>
+        <v>27.494533538231881</v>
       </c>
       <c r="M22">
-        <v>50.276483549006471</v>
+        <v>26.416457457952554</v>
       </c>
       <c r="N22">
-        <v>48.305114431600927</v>
+        <v>25.380653345417436</v>
       </c>
       <c r="O22">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P22">
-        <v>56.686576909987068</v>
+        <v>23.058946539655757</v>
       </c>
       <c r="Q22">
-        <v>54.463864436811512</v>
+        <v>22.154792313279259</v>
       </c>
       <c r="R22">
-        <v>52.32830576631229</v>
+        <v>21.286090481211779</v>
       </c>
       <c r="S22">
-        <v>50.276483549006471</v>
+        <v>20.451450935189072</v>
       </c>
       <c r="T22">
-        <v>48.305114431600927</v>
+        <v>19.649538073871565</v>
       </c>
       <c r="U22">
         <v>59</v>
@@ -3017,22 +3251,22 @@
         <v>48.305114431600927</v>
       </c>
       <c r="AA22">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AB22">
-        <v>56.686576909987068</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="AC22">
-        <v>54.463864436811512</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="AD22">
-        <v>52.32830576631229</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="AE22">
-        <v>50.276483549006471</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="AF22">
-        <v>48.305114431600927</v>
+        <v>42.573999160055052</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.45">
@@ -3040,58 +3274,58 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>63.5</v>
+        <v>31.5</v>
       </c>
       <c r="D23">
-        <v>61.010129386172522</v>
+        <v>30.264867333298181</v>
       </c>
       <c r="E23">
-        <v>58.617887995551371</v>
+        <v>29.078164911179027</v>
       </c>
       <c r="F23">
-        <v>56.319447731539498</v>
+        <v>27.937993756590462</v>
       </c>
       <c r="G23">
-        <v>54.111130599354418</v>
+        <v>26.842529352435658</v>
       </c>
       <c r="H23">
-        <v>51.989402820451843</v>
+        <v>25.790018721956429</v>
       </c>
       <c r="I23">
-        <v>63.5</v>
+        <v>31.5</v>
       </c>
       <c r="J23">
-        <v>61.010129386172522</v>
+        <v>30.264867333298181</v>
       </c>
       <c r="K23">
-        <v>58.617887995551371</v>
+        <v>29.078164911179027</v>
       </c>
       <c r="L23">
-        <v>56.319447731539498</v>
+        <v>27.937993756590462</v>
       </c>
       <c r="M23">
-        <v>54.111130599354418</v>
+        <v>26.842529352435658</v>
       </c>
       <c r="N23">
-        <v>51.989402820451843</v>
+        <v>25.790018721956429</v>
       </c>
       <c r="O23">
-        <v>63.5</v>
+        <v>23.5</v>
       </c>
       <c r="P23">
-        <v>61.010129386172522</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="Q23">
-        <v>58.617887995551371</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="R23">
-        <v>56.319447731539498</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="S23">
-        <v>54.111130599354418</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="T23">
-        <v>51.989402820451843</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="U23">
         <v>63.5</v>
@@ -3112,22 +3346,22 @@
         <v>51.989402820451843</v>
       </c>
       <c r="AA23">
-        <v>63.5</v>
+        <v>55.5</v>
       </c>
       <c r="AB23">
-        <v>61.010129386172522</v>
+        <v>53.323813872953934</v>
       </c>
       <c r="AC23">
-        <v>58.617887995551371</v>
+        <v>51.232957224458282</v>
       </c>
       <c r="AD23">
-        <v>56.319447731539498</v>
+        <v>49.224084237802238</v>
       </c>
       <c r="AE23">
-        <v>54.111130599354418</v>
+        <v>47.293980287624727</v>
       </c>
       <c r="AF23">
-        <v>51.989402820451843</v>
+        <v>45.43955679582799</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.45">
@@ -3135,58 +3369,58 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>64.372892423205656</v>
+        <v>29.78447261372202</v>
       </c>
       <c r="E24">
-        <v>61.848795207904594</v>
+        <v>28.616606737985709</v>
       </c>
       <c r="F24">
-        <v>59.42366926004955</v>
+        <v>27.494533538231881</v>
       </c>
       <c r="G24">
-        <v>57.093633860736162</v>
+        <v>26.416457457952554</v>
       </c>
       <c r="H24">
-        <v>54.854960456224781</v>
+        <v>25.380653345417436</v>
       </c>
       <c r="I24">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>64.372892423205656</v>
+        <v>29.78447261372202</v>
       </c>
       <c r="K24">
-        <v>61.848795207904594</v>
+        <v>28.616606737985709</v>
       </c>
       <c r="L24">
-        <v>59.42366926004955</v>
+        <v>27.494533538231881</v>
       </c>
       <c r="M24">
-        <v>57.093633860736162</v>
+        <v>26.416457457952554</v>
       </c>
       <c r="N24">
-        <v>54.854960456224781</v>
+        <v>25.380653345417436</v>
       </c>
       <c r="O24">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="P24">
-        <v>64.372892423205656</v>
+        <v>21.13736766135111</v>
       </c>
       <c r="Q24">
-        <v>61.848795207904594</v>
+        <v>20.308559620505985</v>
       </c>
       <c r="R24">
-        <v>59.42366926004955</v>
+        <v>19.512249607777463</v>
       </c>
       <c r="S24">
-        <v>57.093633860736162</v>
+        <v>18.74716335725665</v>
       </c>
       <c r="T24">
-        <v>54.854960456224781</v>
+        <v>18.012076567715599</v>
       </c>
       <c r="U24">
         <v>67</v>
@@ -3207,22 +3441,22 @@
         <v>54.854960456224781</v>
       </c>
       <c r="AA24">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AB24">
-        <v>64.372892423205656</v>
+        <v>55.725787470834746</v>
       </c>
       <c r="AC24">
-        <v>61.848795207904594</v>
+        <v>53.540748090424877</v>
       </c>
       <c r="AD24">
-        <v>59.42366926004955</v>
+        <v>51.441385329595136</v>
       </c>
       <c r="AE24">
-        <v>57.093633860736162</v>
+        <v>49.424339760040255</v>
       </c>
       <c r="AF24">
-        <v>54.854960456224781</v>
+        <v>47.486383678522948</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.45">
@@ -3230,58 +3464,58 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>69.5</v>
+        <v>29.5</v>
       </c>
       <c r="D25">
-        <v>66.774866021086467</v>
+        <v>28.343288454993534</v>
       </c>
       <c r="E25">
-        <v>64.156586073871182</v>
+        <v>27.231932218405756</v>
       </c>
       <c r="F25">
-        <v>61.640970351842448</v>
+        <v>26.164152883156145</v>
       </c>
       <c r="G25">
-        <v>59.223993333151689</v>
+        <v>25.138241774503236</v>
       </c>
       <c r="H25">
-        <v>56.901787338919739</v>
+        <v>24.152557215800464</v>
       </c>
       <c r="I25">
-        <v>69.5</v>
+        <v>29.5</v>
       </c>
       <c r="J25">
-        <v>66.774866021086467</v>
+        <v>28.343288454993534</v>
       </c>
       <c r="K25">
-        <v>64.156586073871182</v>
+        <v>27.231932218405756</v>
       </c>
       <c r="L25">
-        <v>61.640970351842448</v>
+        <v>26.164152883156145</v>
       </c>
       <c r="M25">
-        <v>59.223993333151689</v>
+        <v>25.138241774503236</v>
       </c>
       <c r="N25">
-        <v>56.901787338919739</v>
+        <v>24.152557215800464</v>
       </c>
       <c r="O25">
-        <v>69.5</v>
+        <v>19.5</v>
       </c>
       <c r="P25">
-        <v>66.774866021086467</v>
+        <v>18.735394063470302</v>
       </c>
       <c r="Q25">
-        <v>64.156586073871182</v>
+        <v>18.000768754539397</v>
       </c>
       <c r="R25">
-        <v>61.640970351842448</v>
+        <v>17.294948515984572</v>
       </c>
       <c r="S25">
-        <v>59.223993333151689</v>
+        <v>16.616803884841122</v>
       </c>
       <c r="T25">
-        <v>56.901787338919739</v>
+        <v>15.965249685020645</v>
       </c>
       <c r="U25">
         <v>69.5</v>
@@ -3302,22 +3536,22 @@
         <v>56.901787338919739</v>
       </c>
       <c r="AA25">
-        <v>69.5</v>
+        <v>59.5</v>
       </c>
       <c r="AB25">
-        <v>66.774866021086467</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="AC25">
-        <v>64.156586073871182</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="AD25">
-        <v>61.640970351842448</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="AE25">
-        <v>59.223993333151689</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="AF25">
-        <v>56.901787338919739</v>
+        <v>48.71447980813992</v>
       </c>
     </row>
   </sheetData>
@@ -3339,10 +3573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DF016-4C5B-460C-A2A9-8E688F61665E}">
-  <dimension ref="B1:AF25"/>
+  <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3350,56 +3584,56 @@
     <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10">
+      <c r="C1" s="25">
         <v>1</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="11">
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="25">
         <v>2</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="11">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="25">
         <v>3</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="11">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="25">
         <v>4</v>
       </c>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="11">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="25">
         <v>5</v>
       </c>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="13"/>
-    </row>
-    <row r="2" spans="2:32" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="27"/>
+    </row>
+    <row r="2" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="18">
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -3414,10 +3648,10 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="19">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="18">
         <v>1</v>
       </c>
       <c r="J2" s="1">
@@ -3432,10 +3666,10 @@
       <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="19">
         <v>6</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="18">
         <v>1</v>
       </c>
       <c r="P2" s="1">
@@ -3450,10 +3684,10 @@
       <c r="S2" s="1">
         <v>5</v>
       </c>
-      <c r="T2" s="1">
+      <c r="T2" s="19">
         <v>6</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="18">
         <v>1</v>
       </c>
       <c r="V2" s="1">
@@ -3468,10 +3702,10 @@
       <c r="Y2" s="1">
         <v>5</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="Z2" s="19">
         <v>6</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AA2" s="18">
         <v>1</v>
       </c>
       <c r="AB2" s="1">
@@ -3486,15 +3720,15 @@
       <c r="AE2" s="1">
         <v>5</v>
       </c>
-      <c r="AF2" s="1">
+      <c r="AF2" s="19">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B3" s="1">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
       <c r="D3">
@@ -3509,10 +3743,10 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
         <v>0</v>
       </c>
       <c r="J3">
@@ -3527,10 +3761,10 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="5">
+      <c r="N3" s="14">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
         <v>0</v>
       </c>
       <c r="P3">
@@ -3545,10 +3779,10 @@
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="6">
-        <v>0</v>
-      </c>
-      <c r="U3" s="5">
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13">
         <v>0</v>
       </c>
       <c r="V3">
@@ -3563,10 +3797,10 @@
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="Z3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="13">
         <v>0</v>
       </c>
       <c r="AB3">
@@ -3581,15 +3815,19 @@
       <c r="AE3">
         <v>0</v>
       </c>
-      <c r="AF3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B4" s="1">
+      <c r="AF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f>SUM(C3:AF3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
       <c r="D4">
@@ -3604,10 +3842,10 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4">
@@ -3622,10 +3860,10 @@
       <c r="M4">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
         <v>0</v>
       </c>
       <c r="P4">
@@ -3640,10 +3878,10 @@
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5">
+      <c r="T4" s="14">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
         <v>0</v>
       </c>
       <c r="V4">
@@ -3658,10 +3896,10 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="13">
         <v>0</v>
       </c>
       <c r="AB4">
@@ -3676,15 +3914,19 @@
       <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AF4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B5" s="1">
+      <c r="AF4" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH25" si="0">SUM(C4:AF4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
       <c r="D5">
@@ -3699,10 +3941,10 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>0</v>
       </c>
       <c r="J5">
@@ -3717,10 +3959,10 @@
       <c r="M5">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="N5" s="14">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
         <v>0</v>
       </c>
       <c r="P5">
@@ -3735,10 +3977,10 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5" s="6">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
+      <c r="T5" s="14">
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
         <v>0</v>
       </c>
       <c r="V5">
@@ -3753,10 +3995,10 @@
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="Z5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="13">
         <v>0</v>
       </c>
       <c r="AB5">
@@ -3771,15 +4013,19 @@
       <c r="AE5">
         <v>0</v>
       </c>
-      <c r="AF5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B6" s="1">
+      <c r="AF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
       <c r="D6">
@@ -3794,10 +4040,10 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
         <v>0</v>
       </c>
       <c r="J6">
@@ -3812,10 +4058,10 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
+      <c r="N6" s="14">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
         <v>0</v>
       </c>
       <c r="P6">
@@ -3830,10 +4076,10 @@
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" s="6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
+      <c r="T6" s="14">
+        <v>0</v>
+      </c>
+      <c r="U6" s="13">
         <v>0</v>
       </c>
       <c r="V6">
@@ -3848,10 +4094,10 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="Z6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="13">
         <v>0</v>
       </c>
       <c r="AB6">
@@ -3866,15 +4112,19 @@
       <c r="AE6">
         <v>0</v>
       </c>
-      <c r="AF6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B7" s="1">
+      <c r="AF6" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="13">
         <v>0</v>
       </c>
       <c r="D7">
@@ -3889,10 +4139,10 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>0</v>
       </c>
       <c r="J7">
@@ -3907,10 +4157,10 @@
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
+      <c r="N7" s="14">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
         <v>0</v>
       </c>
       <c r="P7">
@@ -3925,10 +4175,10 @@
       <c r="S7">
         <v>0</v>
       </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
+      <c r="T7" s="14">
+        <v>0</v>
+      </c>
+      <c r="U7" s="13">
         <v>0</v>
       </c>
       <c r="V7">
@@ -3943,10 +4193,10 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="13">
         <v>0</v>
       </c>
       <c r="AB7">
@@ -3961,15 +4211,19 @@
       <c r="AE7">
         <v>0</v>
       </c>
-      <c r="AF7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B8" s="1">
+      <c r="AF7" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="13">
         <v>0</v>
       </c>
       <c r="D8">
@@ -3984,10 +4238,10 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8">
@@ -4002,10 +4256,10 @@
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5">
+      <c r="N8" s="14">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
         <v>0</v>
       </c>
       <c r="P8">
@@ -4020,10 +4274,10 @@
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8" s="6">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
+      <c r="T8" s="14">
+        <v>0</v>
+      </c>
+      <c r="U8" s="13">
         <v>0</v>
       </c>
       <c r="V8">
@@ -4038,10 +4292,10 @@
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="Z8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="13">
         <v>0</v>
       </c>
       <c r="AB8">
@@ -4056,15 +4310,19 @@
       <c r="AE8">
         <v>0</v>
       </c>
-      <c r="AF8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B9" s="1">
+      <c r="AF8" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="13">
         <v>1</v>
       </c>
       <c r="D9">
@@ -4079,66 +4337,66 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="14">
+        <v>0</v>
+      </c>
+      <c r="U9" s="13">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="13">
         <v>1</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>1</v>
-      </c>
       <c r="AB9">
         <v>0</v>
       </c>
@@ -4151,15 +4409,19 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B10" s="1">
+      <c r="AF9" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="13">
         <v>0</v>
       </c>
       <c r="D10">
@@ -4174,10 +4436,10 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>0</v>
       </c>
       <c r="J10">
@@ -4192,10 +4454,10 @@
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="5">
+      <c r="N10" s="14">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
         <v>0</v>
       </c>
       <c r="P10">
@@ -4210,10 +4472,10 @@
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10" s="6">
-        <v>0</v>
-      </c>
-      <c r="U10" s="5">
+      <c r="T10" s="14">
+        <v>0</v>
+      </c>
+      <c r="U10" s="13">
         <v>0</v>
       </c>
       <c r="V10">
@@ -4228,10 +4490,10 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="Z10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="13">
         <v>0</v>
       </c>
       <c r="AB10">
@@ -4246,15 +4508,19 @@
       <c r="AE10">
         <v>0</v>
       </c>
-      <c r="AF10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B11" s="1">
+      <c r="AF10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="13">
         <v>0</v>
       </c>
       <c r="D11">
@@ -4269,10 +4535,10 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
         <v>0</v>
       </c>
       <c r="J11">
@@ -4287,10 +4553,10 @@
       <c r="M11">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="N11" s="14">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
         <v>0</v>
       </c>
       <c r="P11">
@@ -4305,10 +4571,10 @@
       <c r="S11">
         <v>0</v>
       </c>
-      <c r="T11" s="6">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
+      <c r="T11" s="14">
+        <v>0</v>
+      </c>
+      <c r="U11" s="13">
         <v>0</v>
       </c>
       <c r="V11">
@@ -4323,10 +4589,10 @@
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11" s="6">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="Z11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="13">
         <v>0</v>
       </c>
       <c r="AB11">
@@ -4341,155 +4607,169 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AF11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B12" s="1">
+      <c r="AF11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+      <c r="T12" s="17">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="25">
         <v>6</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10">
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="25">
         <v>7</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="25">
         <v>8</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10">
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="25">
         <v>9</v>
       </c>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10">
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="28">
         <v>10</v>
       </c>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-    </row>
-    <row r="15" spans="2:32" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="B15" s="2" t="s">
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="30"/>
+    </row>
+    <row r="15" spans="2:34" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <v>1</v>
       </c>
       <c r="D15" s="1">
@@ -4504,10 +4784,10 @@
       <c r="G15" s="1">
         <v>5</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="19">
         <v>6</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="18">
         <v>1</v>
       </c>
       <c r="J15" s="1">
@@ -4522,10 +4802,10 @@
       <c r="M15" s="1">
         <v>5</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="19">
         <v>6</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="18">
         <v>1</v>
       </c>
       <c r="P15" s="1">
@@ -4540,10 +4820,10 @@
       <c r="S15" s="1">
         <v>5</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="19">
         <v>6</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U15" s="18">
         <v>1</v>
       </c>
       <c r="V15" s="1">
@@ -4558,33 +4838,33 @@
       <c r="Y15" s="1">
         <v>5</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z15" s="19">
         <v>6</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA15" s="10">
         <v>1</v>
       </c>
-      <c r="AB15" s="1">
+      <c r="AB15" s="11">
         <v>2</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="11">
         <v>3</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD15" s="11">
         <v>4</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AE15" s="11">
         <v>5</v>
       </c>
-      <c r="AF15" s="4">
+      <c r="AF15" s="12">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B16" s="1">
+    <row r="16" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B16" s="4">
         <v>1</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="13">
         <v>0</v>
       </c>
       <c r="D16">
@@ -4599,10 +4879,10 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>0</v>
       </c>
       <c r="J16">
@@ -4617,10 +4897,10 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="N16" s="14">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
         <v>0</v>
       </c>
       <c r="P16">
@@ -4635,10 +4915,10 @@
       <c r="S16">
         <v>0</v>
       </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13">
         <v>0</v>
       </c>
       <c r="V16">
@@ -4653,10 +4933,10 @@
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
+      <c r="Z16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="13">
         <v>0</v>
       </c>
       <c r="AB16">
@@ -4671,15 +4951,19 @@
       <c r="AE16">
         <v>0</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B17" s="1">
+      <c r="AF16" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B17" s="4">
         <v>2</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="13">
         <v>0</v>
       </c>
       <c r="D17">
@@ -4694,10 +4978,10 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="14">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <v>0</v>
       </c>
       <c r="J17">
@@ -4712,10 +4996,10 @@
       <c r="M17">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="14">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
         <v>0</v>
       </c>
       <c r="P17">
@@ -4730,10 +5014,10 @@
       <c r="S17">
         <v>0</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13">
         <v>0</v>
       </c>
       <c r="V17">
@@ -4748,10 +5032,10 @@
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
+      <c r="Z17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="13">
         <v>0</v>
       </c>
       <c r="AB17">
@@ -4766,15 +5050,19 @@
       <c r="AE17">
         <v>0</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B18" s="1">
+      <c r="AF17" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="13">
         <v>0</v>
       </c>
       <c r="D18">
@@ -4789,10 +5077,10 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>0</v>
       </c>
       <c r="J18">
@@ -4807,10 +5095,10 @@
       <c r="M18">
         <v>0</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
+      <c r="N18" s="14">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
         <v>0</v>
       </c>
       <c r="P18">
@@ -4825,10 +5113,10 @@
       <c r="S18">
         <v>0</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
+      <c r="T18" s="14">
+        <v>0</v>
+      </c>
+      <c r="U18" s="13">
         <v>0</v>
       </c>
       <c r="V18">
@@ -4843,10 +5131,10 @@
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
+      <c r="Z18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
         <v>0</v>
       </c>
       <c r="AB18">
@@ -4861,15 +5149,19 @@
       <c r="AE18">
         <v>0</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B19" s="1">
+      <c r="AF18" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B19" s="4">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="13">
         <v>0</v>
       </c>
       <c r="D19">
@@ -4884,10 +5176,10 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
         <v>0</v>
       </c>
       <c r="J19">
@@ -4902,10 +5194,10 @@
       <c r="M19">
         <v>0</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
         <v>0</v>
       </c>
       <c r="P19">
@@ -4920,10 +5212,10 @@
       <c r="S19">
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
         <v>0</v>
       </c>
       <c r="V19">
@@ -4938,10 +5230,10 @@
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
+      <c r="Z19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="13">
         <v>0</v>
       </c>
       <c r="AB19">
@@ -4956,15 +5248,19 @@
       <c r="AE19">
         <v>0</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B20" s="1">
+      <c r="AF19" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B20" s="4">
         <v>5</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="13">
         <v>0</v>
       </c>
       <c r="D20">
@@ -4979,10 +5275,10 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
         <v>0</v>
       </c>
       <c r="J20">
@@ -4997,10 +5293,10 @@
       <c r="M20">
         <v>0</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="N20" s="14">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
         <v>0</v>
       </c>
       <c r="P20">
@@ -5015,10 +5311,10 @@
       <c r="S20">
         <v>0</v>
       </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="T20" s="14">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
         <v>0</v>
       </c>
       <c r="V20">
@@ -5033,10 +5329,10 @@
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
+      <c r="Z20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="13">
         <v>0</v>
       </c>
       <c r="AB20">
@@ -5051,15 +5347,19 @@
       <c r="AE20">
         <v>0</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B21" s="1">
+      <c r="AF20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B21" s="4">
         <v>6</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="13">
         <v>0</v>
       </c>
       <c r="D21">
@@ -5074,10 +5374,10 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="H21" s="14">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21">
@@ -5092,10 +5392,10 @@
       <c r="M21">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="N21" s="14">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
         <v>0</v>
       </c>
       <c r="P21">
@@ -5110,10 +5410,10 @@
       <c r="S21">
         <v>0</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
+      <c r="T21" s="14">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
         <v>0</v>
       </c>
       <c r="V21">
@@ -5128,10 +5428,10 @@
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
+      <c r="Z21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="13">
         <v>0</v>
       </c>
       <c r="AB21">
@@ -5146,387 +5446,529 @@
       <c r="AE21">
         <v>0</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B22" s="1">
+      <c r="AF21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B22" s="4">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="13">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22" s="14">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
         <v>1</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B23" s="4">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="14">
+        <v>0</v>
+      </c>
+      <c r="U23" s="13">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B24" s="4">
+        <v>9</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="14">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24" s="14">
+        <v>0</v>
+      </c>
+      <c r="U24" s="13">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>0</v>
+      </c>
+      <c r="M25" s="16">
+        <v>0</v>
+      </c>
+      <c r="N25" s="17">
+        <v>0</v>
+      </c>
+      <c r="O25" s="15">
+        <v>0</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0</v>
+      </c>
+      <c r="T25" s="17">
+        <v>0</v>
+      </c>
+      <c r="U25" s="15">
+        <v>0</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0</v>
+      </c>
+      <c r="X25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <f>SUM(C16:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:AF27" si="1">SUM(D16:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
+      <c r="V27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B23" s="1">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B24" s="1">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.45">
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
+      <c r="AB27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5552,7 +5994,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5594,34 +6036,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>6.1639059661956907E-11</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>3.9417271123541944E-16</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>3.9417271123541944E-16</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3.9417271123541944E-16</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>3.9417271123541944E-16</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.9066992728434353E-13</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.9417271123541944E-16</v>
+        <v>7</v>
       </c>
       <c r="K2">
-        <v>3.9417271126037659E-16</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Template_res.xlsx
+++ b/Template_res.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\COURS\GI06\GP30\Projet\Pricing_GP30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24B99EF-C3DD-4B69-AB91-5257B301D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2704B-9C4A-4F4C-94FD-D59231309550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="4" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{B61AF184-DF38-46B2-B197-DAB43B30794F}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="7" r:id="rId1"/>
@@ -808,13 +808,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.86328125" customWidth="1"/>
-    <col min="2" max="7" width="6.6640625" customWidth="1"/>
+    <col min="2" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
@@ -903,7 +903,7 @@
         <v>2200</v>
       </c>
       <c r="D4" s="3">
-        <v>1095.2919438536919</v>
+        <v>2200</v>
       </c>
       <c r="E4" s="3">
         <v>2200</v>
@@ -948,7 +948,7 @@
         <v>2200</v>
       </c>
       <c r="C6" s="3">
-        <v>40.265232784342565</v>
+        <v>2200</v>
       </c>
       <c r="D6" s="3">
         <v>2200</v>
@@ -972,10 +972,10 @@
         <v>2200</v>
       </c>
       <c r="C7" s="3">
+        <v>45.637498359735218</v>
+      </c>
+      <c r="D7" s="3">
         <v>2200</v>
-      </c>
-      <c r="D7" s="3">
-        <v>21.681359786698184</v>
       </c>
       <c r="E7" s="3">
         <v>2200</v>
@@ -993,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3">
-        <v>52</v>
+        <v>2200</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
+        <v>7.6460379137486667E-16</v>
       </c>
       <c r="D8" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>2200</v>
@@ -1017,10 +1017,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="3">
-        <v>9.8067658599140586</v>
+        <v>57.735263365085672</v>
       </c>
       <c r="C9" s="3">
-        <v>7.8086902778934242</v>
+        <v>2200</v>
       </c>
       <c r="D9" s="3">
         <v>2200</v>
@@ -1044,7 +1044,7 @@
         <v>2200</v>
       </c>
       <c r="C10" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <v>2200</v>
@@ -1065,7 +1065,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>2200</v>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1646CF2-DCB4-4B60-ABE2-3202B1316263}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1519,94 +1519,94 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9.6078943915232315</v>
+      </c>
+      <c r="E3">
+        <v>9.2311634638663573</v>
+      </c>
+      <c r="F3">
+        <v>8.8692043671715748</v>
+      </c>
+      <c r="G3">
+        <v>8.5214378896621135</v>
+      </c>
+      <c r="H3">
+        <v>8.1873075307798189</v>
+      </c>
+      <c r="I3" s="5">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="J3">
         <v>10.568683830675555</v>
       </c>
-      <c r="E3">
+      <c r="K3">
         <v>10.154279810252993</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>9.7561248038887314</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>9.3735816786283248</v>
       </c>
-      <c r="H3">
+      <c r="N3" s="6">
         <v>9.0060382838577997</v>
       </c>
-      <c r="I3" s="5">
-        <v>9</v>
-      </c>
-      <c r="J3">
-        <v>8.647104952370908</v>
-      </c>
-      <c r="K3">
-        <v>8.3080471174797221</v>
-      </c>
-      <c r="L3">
-        <v>7.9822839304544173</v>
-      </c>
-      <c r="M3">
-        <v>7.6692941006959021</v>
-      </c>
-      <c r="N3" s="6">
-        <v>7.3685767777018363</v>
-      </c>
       <c r="O3" s="5">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>9.6078943915232315</v>
+      </c>
+      <c r="Q3">
+        <v>9.2311634638663573</v>
+      </c>
+      <c r="R3">
+        <v>8.8692043671715748</v>
+      </c>
+      <c r="S3">
+        <v>8.5214378896621135</v>
+      </c>
+      <c r="T3" s="6">
+        <v>8.1873075307798189</v>
+      </c>
+      <c r="U3" s="5">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>11.529473269827879</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <v>11.07739615663963</v>
       </c>
-      <c r="R3">
+      <c r="X3">
         <v>10.64304524060589</v>
       </c>
-      <c r="S3">
+      <c r="Y3">
         <v>10.225725467594536</v>
       </c>
-      <c r="T3" s="6">
+      <c r="Z3" s="6">
         <v>9.8247690369357823</v>
       </c>
-      <c r="U3" s="5">
+      <c r="AA3" s="5">
         <v>11</v>
       </c>
-      <c r="V3">
+      <c r="AB3">
         <v>10.568683830675555</v>
       </c>
-      <c r="W3">
+      <c r="AC3">
         <v>10.154279810252993</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>9.7561248038887314</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>9.3735816786283248</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="AF3" s="6">
         <v>9.0060382838577997</v>
-      </c>
-      <c r="AA3" s="5">
-        <v>10</v>
-      </c>
-      <c r="AB3">
-        <v>9.6078943915232315</v>
-      </c>
-      <c r="AC3">
-        <v>9.2311634638663573</v>
-      </c>
-      <c r="AD3">
-        <v>8.8692043671715748</v>
-      </c>
-      <c r="AE3">
-        <v>8.5214378896621135</v>
-      </c>
-      <c r="AF3" s="6">
-        <v>8.1873075307798189</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.45">
@@ -1614,94 +1614,94 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>19.5</v>
+      </c>
+      <c r="D4">
+        <v>18.735394063470302</v>
+      </c>
+      <c r="E4">
+        <v>18.000768754539397</v>
+      </c>
+      <c r="F4">
+        <v>17.294948515984572</v>
+      </c>
+      <c r="G4">
+        <v>16.616803884841122</v>
+      </c>
+      <c r="H4">
+        <v>15.965249685020645</v>
+      </c>
+      <c r="I4" s="5">
         <v>21.5</v>
       </c>
-      <c r="D4">
+      <c r="J4">
         <v>20.656972941774949</v>
       </c>
-      <c r="E4">
+      <c r="K4">
         <v>19.847001447312667</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>19.068789389418885</v>
       </c>
-      <c r="G4">
+      <c r="M4">
         <v>18.321091462773545</v>
       </c>
-      <c r="H4">
+      <c r="N4" s="6">
         <v>17.60271119117661</v>
       </c>
-      <c r="I4" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="J4">
-        <v>16.813815185165655</v>
-      </c>
-      <c r="K4">
-        <v>16.154536061766127</v>
-      </c>
-      <c r="L4">
-        <v>15.521107642550255</v>
-      </c>
-      <c r="M4">
-        <v>14.912516306908699</v>
-      </c>
-      <c r="N4" s="6">
-        <v>14.327788178864681</v>
-      </c>
       <c r="O4" s="5">
+        <v>19.5</v>
+      </c>
+      <c r="P4">
+        <v>18.735394063470302</v>
+      </c>
+      <c r="Q4">
+        <v>18.000768754539397</v>
+      </c>
+      <c r="R4">
+        <v>17.294948515984572</v>
+      </c>
+      <c r="S4">
+        <v>16.616803884841122</v>
+      </c>
+      <c r="T4" s="6">
+        <v>15.965249685020645</v>
+      </c>
+      <c r="U4" s="5">
         <v>23.5</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>22.578551820079596</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>21.693234140085941</v>
       </c>
-      <c r="R4">
+      <c r="X4">
         <v>20.842630262853202</v>
       </c>
-      <c r="S4">
+      <c r="Y4">
         <v>20.025379040705968</v>
       </c>
-      <c r="T4" s="6">
+      <c r="Z4" s="6">
         <v>19.240172697332572</v>
       </c>
-      <c r="U4" s="5">
+      <c r="AA4" s="5">
         <v>21.5</v>
       </c>
-      <c r="V4">
+      <c r="AB4">
         <v>20.656972941774949</v>
       </c>
-      <c r="W4">
+      <c r="AC4">
         <v>19.847001447312667</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>19.068789389418885</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>18.321091462773545</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="AF4" s="6">
         <v>17.60271119117661</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>19.5</v>
-      </c>
-      <c r="AB4">
-        <v>18.735394063470302</v>
-      </c>
-      <c r="AC4">
-        <v>18.000768754539397</v>
-      </c>
-      <c r="AD4">
-        <v>17.294948515984572</v>
-      </c>
-      <c r="AE4">
-        <v>16.616803884841122</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>15.965249685020645</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.45">
@@ -1709,94 +1709,94 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>26.902104296265048</v>
+      </c>
+      <c r="E5">
+        <v>25.8472576988258</v>
+      </c>
+      <c r="F5">
+        <v>24.833772228080409</v>
+      </c>
+      <c r="G5">
+        <v>23.860026091053918</v>
+      </c>
+      <c r="H5">
+        <v>22.924461086183491</v>
+      </c>
+      <c r="I5" s="5">
         <v>31</v>
       </c>
-      <c r="D5">
+      <c r="J5">
         <v>29.78447261372202</v>
       </c>
-      <c r="E5">
+      <c r="K5">
         <v>28.616606737985709</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>27.494533538231881</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>26.416457457952554</v>
       </c>
-      <c r="H5">
+      <c r="N5" s="6">
         <v>25.380653345417436</v>
       </c>
-      <c r="I5" s="5">
-        <v>25</v>
-      </c>
-      <c r="J5">
-        <v>24.019735978808079</v>
-      </c>
-      <c r="K5">
-        <v>23.077908659665894</v>
-      </c>
-      <c r="L5">
-        <v>22.173010917928938</v>
-      </c>
-      <c r="M5">
-        <v>21.303594724155282</v>
-      </c>
-      <c r="N5" s="6">
-        <v>20.468268826949547</v>
-      </c>
       <c r="O5" s="5">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>26.902104296265048</v>
+      </c>
+      <c r="Q5">
+        <v>25.8472576988258</v>
+      </c>
+      <c r="R5">
+        <v>24.833772228080409</v>
+      </c>
+      <c r="S5">
+        <v>23.860026091053918</v>
+      </c>
+      <c r="T5" s="6">
+        <v>22.924461086183491</v>
+      </c>
+      <c r="U5" s="5">
         <v>34</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>32.666840931178989</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>31.385955777145615</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>30.155294848383356</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
         <v>28.972888824851186</v>
       </c>
-      <c r="T5" s="6">
+      <c r="Z5" s="6">
         <v>27.836845604651383</v>
       </c>
-      <c r="U5" s="5">
+      <c r="AA5" s="5">
         <v>31</v>
       </c>
-      <c r="V5">
+      <c r="AB5">
         <v>29.78447261372202</v>
       </c>
-      <c r="W5">
+      <c r="AC5">
         <v>28.616606737985709</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>27.494533538231881</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>26.416457457952554</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="AF5" s="6">
         <v>25.380653345417436</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>28</v>
-      </c>
-      <c r="AB5">
-        <v>26.902104296265048</v>
-      </c>
-      <c r="AC5">
-        <v>25.8472576988258</v>
-      </c>
-      <c r="AD5">
-        <v>24.833772228080409</v>
-      </c>
-      <c r="AE5">
-        <v>23.860026091053918</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>22.924461086183491</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.45">
@@ -1804,94 +1804,94 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>35.5</v>
+      </c>
+      <c r="D6">
+        <v>34.108025089907471</v>
+      </c>
+      <c r="E6">
+        <v>32.770630296725571</v>
+      </c>
+      <c r="F6">
+        <v>31.485675503459092</v>
+      </c>
+      <c r="G6">
+        <v>30.251104508300504</v>
+      </c>
+      <c r="H6">
+        <v>29.064941734268356</v>
+      </c>
+      <c r="I6" s="5">
         <v>39.5</v>
       </c>
-      <c r="D6">
+      <c r="J6">
         <v>37.951182846516765</v>
       </c>
-      <c r="E6">
+      <c r="K6">
         <v>36.463095682272112</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>35.033357250327718</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>33.659679664165346</v>
       </c>
-      <c r="H6">
+      <c r="N6" s="6">
         <v>32.339864746580282</v>
       </c>
-      <c r="I6" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="J6">
-        <v>30.264867333298181</v>
-      </c>
-      <c r="K6">
-        <v>29.078164911179027</v>
-      </c>
-      <c r="L6">
-        <v>27.937993756590462</v>
-      </c>
-      <c r="M6">
-        <v>26.842529352435658</v>
-      </c>
-      <c r="N6" s="6">
-        <v>25.790018721956429</v>
-      </c>
       <c r="O6" s="5">
+        <v>35.5</v>
+      </c>
+      <c r="P6">
+        <v>34.108025089907471</v>
+      </c>
+      <c r="Q6">
+        <v>32.770630296725571</v>
+      </c>
+      <c r="R6">
+        <v>31.485675503459092</v>
+      </c>
+      <c r="S6">
+        <v>30.251104508300504</v>
+      </c>
+      <c r="T6" s="6">
+        <v>29.064941734268356</v>
+      </c>
+      <c r="U6" s="5">
         <v>43.5</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>41.794340603126059</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>40.155561067818653</v>
       </c>
-      <c r="R6">
+      <c r="X6">
         <v>38.581038997196352</v>
       </c>
-      <c r="S6">
+      <c r="Y6">
         <v>37.068254820030191</v>
       </c>
-      <c r="T6" s="6">
+      <c r="Z6" s="6">
         <v>35.614787758892206</v>
       </c>
-      <c r="U6" s="5">
+      <c r="AA6" s="5">
         <v>39.5</v>
       </c>
-      <c r="V6">
+      <c r="AB6">
         <v>37.951182846516765</v>
       </c>
-      <c r="W6">
+      <c r="AC6">
         <v>36.463095682272112</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>35.033357250327718</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>33.659679664165346</v>
       </c>
-      <c r="Z6" s="6">
+      <c r="AF6" s="6">
         <v>32.339864746580282</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>35.5</v>
-      </c>
-      <c r="AB6">
-        <v>34.108025089907471</v>
-      </c>
-      <c r="AC6">
-        <v>32.770630296725571</v>
-      </c>
-      <c r="AD6">
-        <v>31.485675503459092</v>
-      </c>
-      <c r="AE6">
-        <v>30.251104508300504</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>29.064941734268356</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.45">
@@ -1899,94 +1899,94 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>42</v>
+      </c>
+      <c r="D7">
+        <v>40.353156444397577</v>
+      </c>
+      <c r="E7">
+        <v>38.7708865482387</v>
+      </c>
+      <c r="F7">
+        <v>37.250658342120616</v>
+      </c>
+      <c r="G7">
+        <v>35.790039136580873</v>
+      </c>
+      <c r="H7">
+        <v>34.386691629275234</v>
+      </c>
+      <c r="I7" s="5">
         <v>47</v>
       </c>
-      <c r="D7">
+      <c r="J7">
         <v>45.157103640159193</v>
       </c>
-      <c r="E7">
+      <c r="K7">
         <v>43.386468280171883</v>
       </c>
-      <c r="F7">
+      <c r="L7">
         <v>41.685260525706404</v>
       </c>
-      <c r="G7">
+      <c r="M7">
         <v>40.050758081411935</v>
       </c>
-      <c r="H7">
+      <c r="N7" s="6">
         <v>38.480345394665143</v>
       </c>
-      <c r="I7" s="5">
-        <v>37</v>
-      </c>
-      <c r="J7">
-        <v>35.549209248635961</v>
-      </c>
-      <c r="K7">
-        <v>34.155304816305524</v>
-      </c>
-      <c r="L7">
-        <v>32.816056158534828</v>
-      </c>
-      <c r="M7">
-        <v>31.529320191749818</v>
-      </c>
-      <c r="N7" s="6">
-        <v>30.293037863885328</v>
-      </c>
       <c r="O7" s="5">
+        <v>42</v>
+      </c>
+      <c r="P7">
+        <v>40.353156444397577</v>
+      </c>
+      <c r="Q7">
+        <v>38.7708865482387</v>
+      </c>
+      <c r="R7">
+        <v>37.250658342120616</v>
+      </c>
+      <c r="S7">
+        <v>35.790039136580873</v>
+      </c>
+      <c r="T7" s="6">
+        <v>34.386691629275234</v>
+      </c>
+      <c r="U7" s="5">
         <v>52</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>49.961050835920808</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <v>48.002050012105059</v>
       </c>
-      <c r="R7">
+      <c r="X7">
         <v>46.119862709292192</v>
       </c>
-      <c r="S7">
+      <c r="Y7">
         <v>44.31147702624299</v>
       </c>
-      <c r="T7" s="6">
+      <c r="Z7" s="6">
         <v>42.573999160055052</v>
       </c>
-      <c r="U7" s="5">
+      <c r="AA7" s="5">
         <v>47</v>
       </c>
-      <c r="V7">
+      <c r="AB7">
         <v>45.157103640159193</v>
       </c>
-      <c r="W7">
+      <c r="AC7">
         <v>43.386468280171883</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>41.685260525706404</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>40.050758081411935</v>
       </c>
-      <c r="Z7" s="6">
+      <c r="AF7" s="6">
         <v>38.480345394665143</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>42</v>
-      </c>
-      <c r="AB7">
-        <v>40.353156444397577</v>
-      </c>
-      <c r="AC7">
-        <v>38.7708865482387</v>
-      </c>
-      <c r="AD7">
-        <v>37.250658342120616</v>
-      </c>
-      <c r="AE7">
-        <v>35.790039136580873</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>34.386691629275234</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.45">
@@ -1994,94 +1994,94 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>47.5</v>
+      </c>
+      <c r="D8">
+        <v>45.637498359735353</v>
+      </c>
+      <c r="E8">
+        <v>43.8480264533652</v>
+      </c>
+      <c r="F8">
+        <v>42.128720744064978</v>
+      </c>
+      <c r="G8">
+        <v>40.476829975895036</v>
+      </c>
+      <c r="H8">
+        <v>38.889710771204136</v>
+      </c>
+      <c r="I8" s="5">
         <v>53.5</v>
       </c>
-      <c r="D8">
+      <c r="J8">
         <v>51.402234994649291</v>
       </c>
-      <c r="E8">
+      <c r="K8">
         <v>49.386724531685012</v>
       </c>
-      <c r="F8">
+      <c r="L8">
         <v>47.450243364367928</v>
       </c>
-      <c r="G8">
+      <c r="M8">
         <v>45.589692709692308</v>
       </c>
-      <c r="H8">
+      <c r="N8" s="6">
         <v>43.802095289672025</v>
       </c>
-      <c r="I8" s="5">
-        <v>41.5</v>
-      </c>
-      <c r="J8">
-        <v>39.872761724821409</v>
-      </c>
-      <c r="K8">
-        <v>38.309328375045382</v>
-      </c>
-      <c r="L8">
-        <v>36.807198123762035</v>
-      </c>
-      <c r="M8">
-        <v>35.363967242097772</v>
-      </c>
-      <c r="N8" s="6">
-        <v>33.977326252736248</v>
-      </c>
       <c r="O8" s="5">
+        <v>47.5</v>
+      </c>
+      <c r="P8">
+        <v>45.637498359735353</v>
+      </c>
+      <c r="Q8">
+        <v>43.8480264533652</v>
+      </c>
+      <c r="R8">
+        <v>42.128720744064978</v>
+      </c>
+      <c r="S8">
+        <v>40.476829975895036</v>
+      </c>
+      <c r="T8" s="6">
+        <v>38.889710771204136</v>
+      </c>
+      <c r="U8" s="5">
         <v>59.5</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>57.166971629563228</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
         <v>54.92542261000483</v>
       </c>
-      <c r="R8">
+      <c r="X8">
         <v>52.771765984670871</v>
       </c>
-      <c r="S8">
+      <c r="Y8">
         <v>50.702555443489572</v>
       </c>
-      <c r="T8" s="6">
+      <c r="Z8" s="6">
         <v>48.71447980813992</v>
       </c>
-      <c r="U8" s="5">
+      <c r="AA8" s="5">
         <v>53.5</v>
       </c>
-      <c r="V8">
+      <c r="AB8">
         <v>51.402234994649291</v>
       </c>
-      <c r="W8">
+      <c r="AC8">
         <v>49.386724531685012</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>47.450243364367928</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>45.589692709692308</v>
       </c>
-      <c r="Z8" s="6">
+      <c r="AF8" s="6">
         <v>43.802095289672025</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>47.5</v>
-      </c>
-      <c r="AB8">
-        <v>45.637498359735353</v>
-      </c>
-      <c r="AC8">
-        <v>43.8480264533652</v>
-      </c>
-      <c r="AD8">
-        <v>42.128720744064978</v>
-      </c>
-      <c r="AE8">
-        <v>40.476829975895036</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>38.889710771204136</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.45">
@@ -2089,94 +2089,94 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>49.961050835920808</v>
+      </c>
+      <c r="E9">
+        <v>48.002050012105059</v>
+      </c>
+      <c r="F9">
+        <v>46.119862709292192</v>
+      </c>
+      <c r="G9">
+        <v>44.31147702624299</v>
+      </c>
+      <c r="H9">
+        <v>42.573999160055052</v>
+      </c>
+      <c r="I9" s="5">
         <v>59</v>
       </c>
-      <c r="D9">
+      <c r="J9">
         <v>56.686576909987068</v>
       </c>
-      <c r="E9">
+      <c r="K9">
         <v>54.463864436811512</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>52.32830576631229</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>50.276483549006471</v>
       </c>
-      <c r="H9">
+      <c r="N9" s="6">
         <v>48.305114431600927</v>
       </c>
-      <c r="I9" s="5">
-        <v>45</v>
-      </c>
-      <c r="J9">
-        <v>43.235524761854542</v>
-      </c>
-      <c r="K9">
-        <v>41.540235587398612</v>
-      </c>
-      <c r="L9">
-        <v>39.911419652272087</v>
-      </c>
-      <c r="M9">
-        <v>38.346470503479509</v>
-      </c>
-      <c r="N9" s="6">
-        <v>36.842883888509185</v>
-      </c>
       <c r="O9" s="5">
+        <v>52</v>
+      </c>
+      <c r="P9">
+        <v>49.961050835920808</v>
+      </c>
+      <c r="Q9">
+        <v>48.002050012105059</v>
+      </c>
+      <c r="R9">
+        <v>46.119862709292192</v>
+      </c>
+      <c r="S9">
+        <v>44.31147702624299</v>
+      </c>
+      <c r="T9" s="6">
+        <v>42.573999160055052</v>
+      </c>
+      <c r="U9" s="5">
         <v>66</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>63.412102984053327</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <v>60.925678861517959</v>
       </c>
-      <c r="R9">
+      <c r="X9">
         <v>58.536748823332395</v>
       </c>
-      <c r="S9">
+      <c r="Y9">
         <v>56.241490071769945</v>
       </c>
-      <c r="T9" s="6">
+      <c r="Z9" s="6">
         <v>54.036229703146802</v>
       </c>
-      <c r="U9" s="5">
+      <c r="AA9" s="5">
         <v>59</v>
       </c>
-      <c r="V9">
+      <c r="AB9">
         <v>56.686576909987068</v>
       </c>
-      <c r="W9">
+      <c r="AC9">
         <v>54.463864436811512</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>52.32830576631229</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>50.276483549006471</v>
       </c>
-      <c r="Z9" s="6">
+      <c r="AF9" s="6">
         <v>48.305114431600927</v>
-      </c>
-      <c r="AA9" s="5">
-        <v>52</v>
-      </c>
-      <c r="AB9">
-        <v>49.961050835920808</v>
-      </c>
-      <c r="AC9">
-        <v>48.002050012105059</v>
-      </c>
-      <c r="AD9">
-        <v>46.119862709292192</v>
-      </c>
-      <c r="AE9">
-        <v>44.31147702624299</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>42.573999160055052</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.45">
@@ -2184,94 +2184,94 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>55.5</v>
+      </c>
+      <c r="D10">
+        <v>53.323813872953934</v>
+      </c>
+      <c r="E10">
+        <v>51.232957224458282</v>
+      </c>
+      <c r="F10">
+        <v>49.224084237802238</v>
+      </c>
+      <c r="G10">
+        <v>47.293980287624727</v>
+      </c>
+      <c r="H10">
+        <v>45.43955679582799</v>
+      </c>
+      <c r="I10" s="5">
         <v>63.5</v>
       </c>
-      <c r="D10">
+      <c r="J10">
         <v>61.010129386172522</v>
       </c>
-      <c r="E10">
+      <c r="K10">
         <v>58.617887995551371</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>56.319447731539498</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>54.111130599354418</v>
       </c>
-      <c r="H10">
+      <c r="N10" s="6">
         <v>51.989402820451843</v>
       </c>
-      <c r="I10" s="5">
-        <v>47.5</v>
-      </c>
-      <c r="J10">
-        <v>45.637498359735353</v>
-      </c>
-      <c r="K10">
-        <v>43.8480264533652</v>
-      </c>
-      <c r="L10">
-        <v>42.128720744064978</v>
-      </c>
-      <c r="M10">
-        <v>40.476829975895036</v>
-      </c>
-      <c r="N10" s="6">
-        <v>38.889710771204136</v>
-      </c>
       <c r="O10" s="5">
+        <v>55.5</v>
+      </c>
+      <c r="P10">
+        <v>53.323813872953934</v>
+      </c>
+      <c r="Q10">
+        <v>51.232957224458282</v>
+      </c>
+      <c r="R10">
+        <v>49.224084237802238</v>
+      </c>
+      <c r="S10">
+        <v>47.293980287624727</v>
+      </c>
+      <c r="T10" s="6">
+        <v>45.43955679582799</v>
+      </c>
+      <c r="U10" s="5">
         <v>71.5</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>68.696444899391111</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>66.002818766644452</v>
       </c>
-      <c r="R10">
+      <c r="X10">
         <v>63.414811225276758</v>
       </c>
-      <c r="S10">
+      <c r="Y10">
         <v>60.928280911084109</v>
       </c>
-      <c r="T10" s="6">
+      <c r="Z10" s="6">
         <v>58.539248845075697</v>
       </c>
-      <c r="U10" s="5">
+      <c r="AA10" s="5">
         <v>63.5</v>
       </c>
-      <c r="V10">
+      <c r="AB10">
         <v>61.010129386172522</v>
       </c>
-      <c r="W10">
+      <c r="AC10">
         <v>58.617887995551371</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>56.319447731539498</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>54.111130599354418</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AF10" s="6">
         <v>51.989402820451843</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>55.5</v>
-      </c>
-      <c r="AB10">
-        <v>53.323813872953934</v>
-      </c>
-      <c r="AC10">
-        <v>51.232957224458282</v>
-      </c>
-      <c r="AD10">
-        <v>49.224084237802238</v>
-      </c>
-      <c r="AE10">
-        <v>47.293980287624727</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>45.43955679582799</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.45">
@@ -2279,94 +2279,94 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>55.725787470834746</v>
+      </c>
+      <c r="E11">
+        <v>53.540748090424877</v>
+      </c>
+      <c r="F11">
+        <v>51.441385329595136</v>
+      </c>
+      <c r="G11">
+        <v>49.424339760040255</v>
+      </c>
+      <c r="H11">
+        <v>47.486383678522948</v>
+      </c>
+      <c r="I11" s="5">
         <v>67</v>
       </c>
-      <c r="D11">
+      <c r="J11">
         <v>64.372892423205656</v>
       </c>
-      <c r="E11">
+      <c r="K11">
         <v>61.848795207904594</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>59.42366926004955</v>
       </c>
-      <c r="G11">
+      <c r="M11">
         <v>57.093633860736162</v>
       </c>
-      <c r="H11">
+      <c r="N11" s="6">
         <v>54.854960456224781</v>
       </c>
-      <c r="I11" s="5">
-        <v>49</v>
-      </c>
-      <c r="J11">
-        <v>47.078682518463836</v>
-      </c>
-      <c r="K11">
-        <v>45.232700972945153</v>
-      </c>
-      <c r="L11">
-        <v>43.459101399140714</v>
-      </c>
-      <c r="M11">
-        <v>41.755045659344354</v>
-      </c>
-      <c r="N11" s="6">
-        <v>40.117806900821108</v>
-      </c>
       <c r="O11" s="5">
+        <v>58</v>
+      </c>
+      <c r="P11">
+        <v>55.725787470834746</v>
+      </c>
+      <c r="Q11">
+        <v>53.540748090424877</v>
+      </c>
+      <c r="R11">
+        <v>51.441385329595136</v>
+      </c>
+      <c r="S11">
+        <v>49.424339760040255</v>
+      </c>
+      <c r="T11" s="6">
+        <v>47.486383678522948</v>
+      </c>
+      <c r="U11" s="5">
         <v>76</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>73.019997375576565</v>
       </c>
-      <c r="Q11">
+      <c r="W11">
         <v>70.156842325384318</v>
       </c>
-      <c r="R11">
+      <c r="X11">
         <v>67.405953190503965</v>
       </c>
-      <c r="S11">
+      <c r="Y11">
         <v>64.762927961432069</v>
       </c>
-      <c r="T11" s="6">
+      <c r="Z11" s="6">
         <v>62.223537233926621</v>
       </c>
-      <c r="U11" s="5">
+      <c r="AA11" s="5">
         <v>67</v>
       </c>
-      <c r="V11">
+      <c r="AB11">
         <v>64.372892423205656</v>
       </c>
-      <c r="W11">
+      <c r="AC11">
         <v>61.848795207904594</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>59.42366926004955</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>57.093633860736162</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AF11" s="6">
         <v>54.854960456224781</v>
-      </c>
-      <c r="AA11" s="5">
-        <v>58</v>
-      </c>
-      <c r="AB11">
-        <v>55.725787470834746</v>
-      </c>
-      <c r="AC11">
-        <v>53.540748090424877</v>
-      </c>
-      <c r="AD11">
-        <v>51.441385329595136</v>
-      </c>
-      <c r="AE11">
-        <v>49.424339760040255</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>47.486383678522948</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.45">
@@ -2374,94 +2374,94 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>59.5</v>
+      </c>
+      <c r="D12">
+        <v>57.166971629563228</v>
+      </c>
+      <c r="E12">
+        <v>54.92542261000483</v>
+      </c>
+      <c r="F12">
+        <v>52.771765984670871</v>
+      </c>
+      <c r="G12">
+        <v>50.702555443489572</v>
+      </c>
+      <c r="H12">
+        <v>48.71447980813992</v>
+      </c>
+      <c r="I12" s="7">
         <v>69.5</v>
       </c>
-      <c r="D12">
+      <c r="J12" s="8">
         <v>66.774866021086467</v>
       </c>
-      <c r="E12">
+      <c r="K12" s="8">
         <v>64.156586073871182</v>
       </c>
-      <c r="F12">
+      <c r="L12" s="8">
         <v>61.640970351842448</v>
       </c>
-      <c r="G12">
+      <c r="M12" s="8">
         <v>59.223993333151689</v>
       </c>
-      <c r="H12">
+      <c r="N12" s="9">
         <v>56.901787338919739</v>
       </c>
-      <c r="I12" s="7">
-        <v>49.5</v>
-      </c>
-      <c r="J12" s="8">
-        <v>47.559077238039997</v>
-      </c>
-      <c r="K12" s="8">
-        <v>45.694259146138471</v>
-      </c>
-      <c r="L12" s="8">
-        <v>43.902561617499295</v>
-      </c>
-      <c r="M12" s="8">
-        <v>42.181117553827463</v>
-      </c>
-      <c r="N12" s="9">
-        <v>40.527172277360101</v>
-      </c>
       <c r="O12" s="7">
+        <v>59.5</v>
+      </c>
+      <c r="P12" s="8">
+        <v>57.166971629563228</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>54.92542261000483</v>
+      </c>
+      <c r="R12" s="8">
+        <v>52.771765984670871</v>
+      </c>
+      <c r="S12" s="8">
+        <v>50.702555443489572</v>
+      </c>
+      <c r="T12" s="9">
+        <v>48.71447980813992</v>
+      </c>
+      <c r="U12" s="7">
         <v>79.5</v>
       </c>
-      <c r="P12" s="8">
+      <c r="V12" s="8">
         <v>76.382760412609699</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="W12" s="8">
         <v>73.387749537737548</v>
       </c>
-      <c r="R12" s="8">
+      <c r="X12" s="8">
         <v>70.510174719014017</v>
       </c>
-      <c r="S12" s="8">
+      <c r="Y12" s="8">
         <v>67.745431222813806</v>
       </c>
-      <c r="T12" s="9">
+      <c r="Z12" s="9">
         <v>65.089094869699551</v>
       </c>
-      <c r="U12" s="7">
+      <c r="AA12" s="7">
         <v>69.5</v>
       </c>
-      <c r="V12" s="8">
+      <c r="AB12" s="8">
         <v>66.774866021086467</v>
       </c>
-      <c r="W12" s="8">
+      <c r="AC12" s="8">
         <v>64.156586073871182</v>
       </c>
-      <c r="X12" s="8">
+      <c r="AD12" s="8">
         <v>61.640970351842448</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="AE12" s="8">
         <v>59.223993333151689</v>
       </c>
-      <c r="Z12" s="9">
+      <c r="AF12" s="9">
         <v>56.901787338919739</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>59.5</v>
-      </c>
-      <c r="AB12" s="8">
-        <v>57.166971629563228</v>
-      </c>
-      <c r="AC12" s="8">
-        <v>54.92542261000483</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>52.771765984670871</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>50.702555443489572</v>
-      </c>
-      <c r="AF12" s="9">
-        <v>48.71447980813992</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.45">
@@ -2609,58 +2609,58 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>6.7255260740662619</v>
+        <v>10.568683830675555</v>
       </c>
       <c r="E16">
-        <v>6.46181442470645</v>
+        <v>10.154279810252993</v>
       </c>
       <c r="F16">
-        <v>6.2084430570201024</v>
+        <v>9.7561248038887314</v>
       </c>
       <c r="G16">
-        <v>5.9650065227634794</v>
+        <v>9.3735816786283248</v>
       </c>
       <c r="H16">
-        <v>5.7311152715458729</v>
+        <v>9.0060382838577997</v>
       </c>
       <c r="I16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J16">
-        <v>6.7255260740662619</v>
+        <v>11.529473269827879</v>
       </c>
       <c r="K16">
-        <v>6.46181442470645</v>
+        <v>11.07739615663963</v>
       </c>
       <c r="L16">
-        <v>6.2084430570201024</v>
+        <v>10.64304524060589</v>
       </c>
       <c r="M16">
-        <v>5.9650065227634794</v>
+        <v>10.225725467594536</v>
       </c>
       <c r="N16">
-        <v>5.7311152715458729</v>
+        <v>9.8247690369357823</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P16">
-        <v>5.7647366349139393</v>
+        <v>9.6078943915232315</v>
       </c>
       <c r="Q16">
-        <v>5.5386980783198148</v>
+        <v>9.2311634638663573</v>
       </c>
       <c r="R16">
-        <v>5.3215226203029449</v>
+        <v>8.8692043671715748</v>
       </c>
       <c r="S16">
-        <v>5.1128627337972681</v>
+        <v>8.5214378896621135</v>
       </c>
       <c r="T16">
-        <v>4.9123845184678911</v>
+        <v>8.1873075307798189</v>
       </c>
       <c r="U16">
         <v>11</v>
@@ -2681,22 +2681,22 @@
         <v>9.0060382838577997</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB16">
-        <v>9.6078943915232315</v>
+        <v>11.529473269827879</v>
       </c>
       <c r="AC16">
-        <v>9.2311634638663573</v>
+        <v>11.07739615663963</v>
       </c>
       <c r="AD16">
-        <v>8.8692043671715748</v>
+        <v>10.64304524060589</v>
       </c>
       <c r="AE16">
-        <v>8.5214378896621135</v>
+        <v>10.225725467594536</v>
       </c>
       <c r="AF16">
-        <v>8.1873075307798189</v>
+        <v>9.8247690369357823</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.45">
@@ -2704,58 +2704,58 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>13.5</v>
+        <v>21.5</v>
       </c>
       <c r="D17">
-        <v>12.970657428556363</v>
+        <v>20.656972941774949</v>
       </c>
       <c r="E17">
-        <v>12.462070676219582</v>
+        <v>19.847001447312667</v>
       </c>
       <c r="F17">
-        <v>11.973425895681626</v>
+        <v>19.068789389418885</v>
       </c>
       <c r="G17">
-        <v>11.503941151043854</v>
+        <v>18.321091462773545</v>
       </c>
       <c r="H17">
-        <v>11.052865166552754</v>
+        <v>17.60271119117661</v>
       </c>
       <c r="I17">
-        <v>13.5</v>
+        <v>23.5</v>
       </c>
       <c r="J17">
-        <v>12.970657428556363</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="K17">
-        <v>12.462070676219582</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="L17">
-        <v>11.973425895681626</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="M17">
-        <v>11.503941151043854</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="N17">
-        <v>11.052865166552754</v>
+        <v>19.240172697332572</v>
       </c>
       <c r="O17">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="P17">
-        <v>11.049078550251716</v>
+        <v>18.735394063470302</v>
       </c>
       <c r="Q17">
-        <v>10.615837983446312</v>
+        <v>18.000768754539397</v>
       </c>
       <c r="R17">
-        <v>10.199585022247311</v>
+        <v>17.294948515984572</v>
       </c>
       <c r="S17">
-        <v>9.7996535731114314</v>
+        <v>16.616803884841122</v>
       </c>
       <c r="T17">
-        <v>9.415403660396791</v>
+        <v>15.965249685020645</v>
       </c>
       <c r="U17">
         <v>21.5</v>
@@ -2776,22 +2776,22 @@
         <v>17.60271119117661</v>
       </c>
       <c r="AA17">
-        <v>19.5</v>
+        <v>23.5</v>
       </c>
       <c r="AB17">
-        <v>18.735394063470302</v>
+        <v>22.578551820079596</v>
       </c>
       <c r="AC17">
-        <v>18.000768754539397</v>
+        <v>21.693234140085941</v>
       </c>
       <c r="AD17">
-        <v>17.294948515984572</v>
+        <v>20.842630262853202</v>
       </c>
       <c r="AE17">
-        <v>16.616803884841122</v>
+        <v>20.025379040705968</v>
       </c>
       <c r="AF17">
-        <v>15.965249685020645</v>
+        <v>19.240172697332572</v>
       </c>
     </row>
     <row r="18" spans="2:32" x14ac:dyDescent="0.45">
@@ -2799,58 +2799,58 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>18.254999343894141</v>
+        <v>29.78447261372202</v>
       </c>
       <c r="E18">
-        <v>17.539210581346079</v>
+        <v>28.616606737985709</v>
       </c>
       <c r="F18">
-        <v>16.851488297625991</v>
+        <v>27.494533538231881</v>
       </c>
       <c r="G18">
-        <v>16.190731990358017</v>
+        <v>26.416457457952554</v>
       </c>
       <c r="H18">
-        <v>15.555884308481655</v>
+        <v>25.380653345417436</v>
       </c>
       <c r="I18">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J18">
-        <v>18.254999343894141</v>
+        <v>32.666840931178989</v>
       </c>
       <c r="K18">
-        <v>17.539210581346079</v>
+        <v>31.385955777145615</v>
       </c>
       <c r="L18">
-        <v>16.851488297625991</v>
+        <v>30.155294848383356</v>
       </c>
       <c r="M18">
-        <v>16.190731990358017</v>
+        <v>28.972888824851186</v>
       </c>
       <c r="N18">
-        <v>15.555884308481655</v>
+        <v>27.836845604651383</v>
       </c>
       <c r="O18">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="P18">
-        <v>15.372631026437171</v>
+        <v>26.902104296265048</v>
       </c>
       <c r="Q18">
-        <v>14.769861542186172</v>
+        <v>25.8472576988258</v>
       </c>
       <c r="R18">
-        <v>14.19072698747452</v>
+        <v>24.833772228080409</v>
       </c>
       <c r="S18">
-        <v>13.634300623459382</v>
+        <v>23.860026091053918</v>
       </c>
       <c r="T18">
-        <v>13.099692049247709</v>
+        <v>22.924461086183491</v>
       </c>
       <c r="U18">
         <v>31</v>
@@ -2871,22 +2871,22 @@
         <v>25.380653345417436</v>
       </c>
       <c r="AA18">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AB18">
-        <v>26.902104296265048</v>
+        <v>32.666840931178989</v>
       </c>
       <c r="AC18">
-        <v>25.8472576988258</v>
+        <v>31.385955777145615</v>
       </c>
       <c r="AD18">
-        <v>24.833772228080409</v>
+        <v>30.155294848383356</v>
       </c>
       <c r="AE18">
-        <v>23.860026091053918</v>
+        <v>28.972888824851186</v>
       </c>
       <c r="AF18">
-        <v>22.924461086183491</v>
+        <v>27.836845604651383</v>
       </c>
     </row>
     <row r="19" spans="2:32" x14ac:dyDescent="0.45">
@@ -2894,58 +2894,58 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>23.5</v>
+        <v>39.5</v>
       </c>
       <c r="D19">
-        <v>22.578551820079596</v>
+        <v>37.951182846516765</v>
       </c>
       <c r="E19">
-        <v>21.693234140085941</v>
+        <v>36.463095682272112</v>
       </c>
       <c r="F19">
-        <v>20.842630262853202</v>
+        <v>35.033357250327718</v>
       </c>
       <c r="G19">
-        <v>20.025379040705968</v>
+        <v>33.659679664165346</v>
       </c>
       <c r="H19">
-        <v>19.240172697332572</v>
+        <v>32.339864746580282</v>
       </c>
       <c r="I19">
-        <v>23.5</v>
+        <v>43.5</v>
       </c>
       <c r="J19">
-        <v>22.578551820079596</v>
+        <v>41.794340603126059</v>
       </c>
       <c r="K19">
-        <v>21.693234140085941</v>
+        <v>40.155561067818653</v>
       </c>
       <c r="L19">
-        <v>20.842630262853202</v>
+        <v>38.581038997196352</v>
       </c>
       <c r="M19">
-        <v>20.025379040705968</v>
+        <v>37.068254820030191</v>
       </c>
       <c r="N19">
-        <v>19.240172697332572</v>
+        <v>35.614787758892206</v>
       </c>
       <c r="O19">
-        <v>19.5</v>
+        <v>35.5</v>
       </c>
       <c r="P19">
-        <v>18.735394063470302</v>
+        <v>34.108025089907471</v>
       </c>
       <c r="Q19">
-        <v>18.000768754539397</v>
+        <v>32.770630296725571</v>
       </c>
       <c r="R19">
-        <v>17.294948515984572</v>
+        <v>31.485675503459092</v>
       </c>
       <c r="S19">
-        <v>16.616803884841122</v>
+        <v>30.251104508300504</v>
       </c>
       <c r="T19">
-        <v>15.965249685020645</v>
+        <v>29.064941734268356</v>
       </c>
       <c r="U19">
         <v>39.5</v>
@@ -2966,22 +2966,22 @@
         <v>32.339864746580282</v>
       </c>
       <c r="AA19">
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="AB19">
-        <v>34.108025089907471</v>
+        <v>41.794340603126059</v>
       </c>
       <c r="AC19">
-        <v>32.770630296725571</v>
+        <v>40.155561067818653</v>
       </c>
       <c r="AD19">
-        <v>31.485675503459092</v>
+        <v>38.581038997196352</v>
       </c>
       <c r="AE19">
-        <v>30.251104508300504</v>
+        <v>37.068254820030191</v>
       </c>
       <c r="AF19">
-        <v>29.064941734268356</v>
+        <v>35.614787758892206</v>
       </c>
     </row>
     <row r="20" spans="2:32" x14ac:dyDescent="0.45">
@@ -2989,58 +2989,58 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>25.941314857112726</v>
+        <v>45.157103640159193</v>
       </c>
       <c r="E20">
-        <v>24.924141352439165</v>
+        <v>43.386468280171883</v>
       </c>
       <c r="F20">
-        <v>23.946851791363251</v>
+        <v>41.685260525706404</v>
       </c>
       <c r="G20">
-        <v>23.007882302087708</v>
+        <v>40.050758081411935</v>
       </c>
       <c r="H20">
-        <v>22.105730333105509</v>
+        <v>38.480345394665143</v>
       </c>
       <c r="I20">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="J20">
-        <v>25.941314857112726</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="K20">
-        <v>24.924141352439165</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="L20">
-        <v>23.946851791363251</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="M20">
-        <v>23.007882302087708</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="N20">
-        <v>22.105730333105509</v>
+        <v>42.573999160055052</v>
       </c>
       <c r="O20">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="P20">
-        <v>21.13736766135111</v>
+        <v>40.353156444397577</v>
       </c>
       <c r="Q20">
-        <v>20.308559620505985</v>
+        <v>38.7708865482387</v>
       </c>
       <c r="R20">
-        <v>19.512249607777463</v>
+        <v>37.250658342120616</v>
       </c>
       <c r="S20">
-        <v>18.74716335725665</v>
+        <v>35.790039136580873</v>
       </c>
       <c r="T20">
-        <v>18.012076567715599</v>
+        <v>34.386691629275234</v>
       </c>
       <c r="U20">
         <v>47</v>
@@ -3061,22 +3061,22 @@
         <v>38.480345394665143</v>
       </c>
       <c r="AA20">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AB20">
-        <v>40.353156444397577</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="AC20">
-        <v>38.7708865482387</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="AD20">
-        <v>37.250658342120616</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="AE20">
-        <v>35.790039136580873</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="AF20">
-        <v>34.386691629275234</v>
+        <v>42.573999160055052</v>
       </c>
     </row>
     <row r="21" spans="2:32" x14ac:dyDescent="0.45">
@@ -3084,58 +3084,58 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>29.5</v>
+        <v>53.5</v>
       </c>
       <c r="D21">
-        <v>28.343288454993534</v>
+        <v>51.402234994649291</v>
       </c>
       <c r="E21">
-        <v>27.231932218405756</v>
+        <v>49.386724531685012</v>
       </c>
       <c r="F21">
-        <v>26.164152883156145</v>
+        <v>47.450243364367928</v>
       </c>
       <c r="G21">
-        <v>25.138241774503236</v>
+        <v>45.589692709692308</v>
       </c>
       <c r="H21">
-        <v>24.152557215800464</v>
+        <v>43.802095289672025</v>
       </c>
       <c r="I21">
-        <v>29.5</v>
+        <v>59.5</v>
       </c>
       <c r="J21">
-        <v>28.343288454993534</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="K21">
-        <v>27.231932218405756</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="L21">
-        <v>26.164152883156145</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="M21">
-        <v>25.138241774503236</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="N21">
-        <v>24.152557215800464</v>
+        <v>48.71447980813992</v>
       </c>
       <c r="O21">
-        <v>23.5</v>
+        <v>47.5</v>
       </c>
       <c r="P21">
-        <v>22.578551820079596</v>
+        <v>45.637498359735353</v>
       </c>
       <c r="Q21">
-        <v>21.693234140085941</v>
+        <v>43.8480264533652</v>
       </c>
       <c r="R21">
-        <v>20.842630262853202</v>
+        <v>42.128720744064978</v>
       </c>
       <c r="S21">
-        <v>20.025379040705968</v>
+        <v>40.476829975895036</v>
       </c>
       <c r="T21">
-        <v>19.240172697332572</v>
+        <v>38.889710771204136</v>
       </c>
       <c r="U21">
         <v>53.5</v>
@@ -3156,22 +3156,22 @@
         <v>43.802095289672025</v>
       </c>
       <c r="AA21">
-        <v>47.5</v>
+        <v>59.5</v>
       </c>
       <c r="AB21">
-        <v>45.637498359735353</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="AC21">
-        <v>43.8480264533652</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="AD21">
-        <v>42.128720744064978</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="AE21">
-        <v>40.476829975895036</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="AF21">
-        <v>38.889710771204136</v>
+        <v>48.71447980813992</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.45">
@@ -3179,58 +3179,58 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>29.78447261372202</v>
+        <v>56.686576909987068</v>
       </c>
       <c r="E22">
-        <v>28.616606737985709</v>
+        <v>54.463864436811512</v>
       </c>
       <c r="F22">
-        <v>27.494533538231881</v>
+        <v>52.32830576631229</v>
       </c>
       <c r="G22">
-        <v>26.416457457952554</v>
+        <v>50.276483549006471</v>
       </c>
       <c r="H22">
-        <v>25.380653345417436</v>
+        <v>48.305114431600927</v>
       </c>
       <c r="I22">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="J22">
-        <v>29.78447261372202</v>
+        <v>63.412102984053327</v>
       </c>
       <c r="K22">
-        <v>28.616606737985709</v>
+        <v>60.925678861517959</v>
       </c>
       <c r="L22">
-        <v>27.494533538231881</v>
+        <v>58.536748823332395</v>
       </c>
       <c r="M22">
-        <v>26.416457457952554</v>
+        <v>56.241490071769945</v>
       </c>
       <c r="N22">
-        <v>25.380653345417436</v>
+        <v>54.036229703146802</v>
       </c>
       <c r="O22">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="P22">
-        <v>23.058946539655757</v>
+        <v>49.961050835920808</v>
       </c>
       <c r="Q22">
-        <v>22.154792313279259</v>
+        <v>48.002050012105059</v>
       </c>
       <c r="R22">
-        <v>21.286090481211779</v>
+        <v>46.119862709292192</v>
       </c>
       <c r="S22">
-        <v>20.451450935189072</v>
+        <v>44.31147702624299</v>
       </c>
       <c r="T22">
-        <v>19.649538073871565</v>
+        <v>42.573999160055052</v>
       </c>
       <c r="U22">
         <v>59</v>
@@ -3251,22 +3251,22 @@
         <v>48.305114431600927</v>
       </c>
       <c r="AA22">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="AB22">
-        <v>49.961050835920808</v>
+        <v>63.412102984053327</v>
       </c>
       <c r="AC22">
-        <v>48.002050012105059</v>
+        <v>60.925678861517959</v>
       </c>
       <c r="AD22">
-        <v>46.119862709292192</v>
+        <v>58.536748823332395</v>
       </c>
       <c r="AE22">
-        <v>44.31147702624299</v>
+        <v>56.241490071769945</v>
       </c>
       <c r="AF22">
-        <v>42.573999160055052</v>
+        <v>54.036229703146802</v>
       </c>
     </row>
     <row r="23" spans="2:32" x14ac:dyDescent="0.45">
@@ -3274,58 +3274,58 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>31.5</v>
+        <v>63.5</v>
       </c>
       <c r="D23">
-        <v>30.264867333298181</v>
+        <v>61.010129386172522</v>
       </c>
       <c r="E23">
-        <v>29.078164911179027</v>
+        <v>58.617887995551371</v>
       </c>
       <c r="F23">
-        <v>27.937993756590462</v>
+        <v>56.319447731539498</v>
       </c>
       <c r="G23">
-        <v>26.842529352435658</v>
+        <v>54.111130599354418</v>
       </c>
       <c r="H23">
-        <v>25.790018721956429</v>
+        <v>51.989402820451843</v>
       </c>
       <c r="I23">
-        <v>31.5</v>
+        <v>71.5</v>
       </c>
       <c r="J23">
-        <v>30.264867333298181</v>
+        <v>68.696444899391111</v>
       </c>
       <c r="K23">
-        <v>29.078164911179027</v>
+        <v>66.002818766644452</v>
       </c>
       <c r="L23">
-        <v>27.937993756590462</v>
+        <v>63.414811225276758</v>
       </c>
       <c r="M23">
-        <v>26.842529352435658</v>
+        <v>60.928280911084109</v>
       </c>
       <c r="N23">
-        <v>25.790018721956429</v>
+        <v>58.539248845075697</v>
       </c>
       <c r="O23">
-        <v>23.5</v>
+        <v>55.5</v>
       </c>
       <c r="P23">
-        <v>22.578551820079596</v>
+        <v>53.323813872953934</v>
       </c>
       <c r="Q23">
-        <v>21.693234140085941</v>
+        <v>51.232957224458282</v>
       </c>
       <c r="R23">
-        <v>20.842630262853202</v>
+        <v>49.224084237802238</v>
       </c>
       <c r="S23">
-        <v>20.025379040705968</v>
+        <v>47.293980287624727</v>
       </c>
       <c r="T23">
-        <v>19.240172697332572</v>
+        <v>45.43955679582799</v>
       </c>
       <c r="U23">
         <v>63.5</v>
@@ -3346,22 +3346,22 @@
         <v>51.989402820451843</v>
       </c>
       <c r="AA23">
-        <v>55.5</v>
+        <v>71.5</v>
       </c>
       <c r="AB23">
-        <v>53.323813872953934</v>
+        <v>68.696444899391111</v>
       </c>
       <c r="AC23">
-        <v>51.232957224458282</v>
+        <v>66.002818766644452</v>
       </c>
       <c r="AD23">
-        <v>49.224084237802238</v>
+        <v>63.414811225276758</v>
       </c>
       <c r="AE23">
-        <v>47.293980287624727</v>
+        <v>60.928280911084109</v>
       </c>
       <c r="AF23">
-        <v>45.43955679582799</v>
+        <v>58.539248845075697</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.45">
@@ -3369,58 +3369,58 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>29.78447261372202</v>
+        <v>64.372892423205656</v>
       </c>
       <c r="E24">
-        <v>28.616606737985709</v>
+        <v>61.848795207904594</v>
       </c>
       <c r="F24">
-        <v>27.494533538231881</v>
+        <v>59.42366926004955</v>
       </c>
       <c r="G24">
-        <v>26.416457457952554</v>
+        <v>57.093633860736162</v>
       </c>
       <c r="H24">
-        <v>25.380653345417436</v>
+        <v>54.854960456224781</v>
       </c>
       <c r="I24">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="J24">
-        <v>29.78447261372202</v>
+        <v>73.019997375576565</v>
       </c>
       <c r="K24">
-        <v>28.616606737985709</v>
+        <v>70.156842325384318</v>
       </c>
       <c r="L24">
-        <v>27.494533538231881</v>
+        <v>67.405953190503965</v>
       </c>
       <c r="M24">
-        <v>26.416457457952554</v>
+        <v>64.762927961432069</v>
       </c>
       <c r="N24">
-        <v>25.380653345417436</v>
+        <v>62.223537233926621</v>
       </c>
       <c r="O24">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="P24">
-        <v>21.13736766135111</v>
+        <v>55.725787470834746</v>
       </c>
       <c r="Q24">
-        <v>20.308559620505985</v>
+        <v>53.540748090424877</v>
       </c>
       <c r="R24">
-        <v>19.512249607777463</v>
+        <v>51.441385329595136</v>
       </c>
       <c r="S24">
-        <v>18.74716335725665</v>
+        <v>49.424339760040255</v>
       </c>
       <c r="T24">
-        <v>18.012076567715599</v>
+        <v>47.486383678522948</v>
       </c>
       <c r="U24">
         <v>67</v>
@@ -3441,22 +3441,22 @@
         <v>54.854960456224781</v>
       </c>
       <c r="AA24">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="AB24">
-        <v>55.725787470834746</v>
+        <v>73.019997375576565</v>
       </c>
       <c r="AC24">
-        <v>53.540748090424877</v>
+        <v>70.156842325384318</v>
       </c>
       <c r="AD24">
-        <v>51.441385329595136</v>
+        <v>67.405953190503965</v>
       </c>
       <c r="AE24">
-        <v>49.424339760040255</v>
+        <v>64.762927961432069</v>
       </c>
       <c r="AF24">
-        <v>47.486383678522948</v>
+        <v>62.223537233926621</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.45">
@@ -3464,58 +3464,58 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>29.5</v>
+        <v>69.5</v>
       </c>
       <c r="D25">
-        <v>28.343288454993534</v>
+        <v>66.774866021086467</v>
       </c>
       <c r="E25">
-        <v>27.231932218405756</v>
+        <v>64.156586073871182</v>
       </c>
       <c r="F25">
-        <v>26.164152883156145</v>
+        <v>61.640970351842448</v>
       </c>
       <c r="G25">
-        <v>25.138241774503236</v>
+        <v>59.223993333151689</v>
       </c>
       <c r="H25">
-        <v>24.152557215800464</v>
+        <v>56.901787338919739</v>
       </c>
       <c r="I25">
-        <v>29.5</v>
+        <v>79.5</v>
       </c>
       <c r="J25">
-        <v>28.343288454993534</v>
+        <v>76.382760412609699</v>
       </c>
       <c r="K25">
-        <v>27.231932218405756</v>
+        <v>73.387749537737548</v>
       </c>
       <c r="L25">
-        <v>26.164152883156145</v>
+        <v>70.510174719014017</v>
       </c>
       <c r="M25">
-        <v>25.138241774503236</v>
+        <v>67.745431222813806</v>
       </c>
       <c r="N25">
-        <v>24.152557215800464</v>
+        <v>65.089094869699551</v>
       </c>
       <c r="O25">
-        <v>19.5</v>
+        <v>59.5</v>
       </c>
       <c r="P25">
-        <v>18.735394063470302</v>
+        <v>57.166971629563228</v>
       </c>
       <c r="Q25">
-        <v>18.000768754539397</v>
+        <v>54.92542261000483</v>
       </c>
       <c r="R25">
-        <v>17.294948515984572</v>
+        <v>52.771765984670871</v>
       </c>
       <c r="S25">
-        <v>16.616803884841122</v>
+        <v>50.702555443489572</v>
       </c>
       <c r="T25">
-        <v>15.965249685020645</v>
+        <v>48.71447980813992</v>
       </c>
       <c r="U25">
         <v>69.5</v>
@@ -3536,36 +3536,36 @@
         <v>56.901787338919739</v>
       </c>
       <c r="AA25">
-        <v>59.5</v>
+        <v>79.5</v>
       </c>
       <c r="AB25">
-        <v>57.166971629563228</v>
+        <v>76.382760412609699</v>
       </c>
       <c r="AC25">
-        <v>54.92542261000483</v>
+        <v>73.387749537737548</v>
       </c>
       <c r="AD25">
-        <v>52.771765984670871</v>
+        <v>70.510174719014017</v>
       </c>
       <c r="AE25">
-        <v>50.702555443489572</v>
+        <v>67.745431222813806</v>
       </c>
       <c r="AF25">
-        <v>48.71447980813992</v>
+        <v>65.089094869699551</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:Z14"/>
     <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3575,8 +3575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0DF016-4C5B-460C-A2A9-8E688F61665E}">
   <dimension ref="B1:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -4315,7 +4315,7 @@
       </c>
       <c r="AH8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.45">
@@ -4323,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -4359,7 +4359,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -4414,7 +4414,7 @@
       </c>
       <c r="AH9">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.45">
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4476,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="U10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="AH10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.45">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="AH21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.45">
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="U22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="AH22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.45">
@@ -5558,7 +5558,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="AH23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.45">
@@ -5853,7 +5853,7 @@
     <row r="27" spans="2:34" x14ac:dyDescent="0.45">
       <c r="C27">
         <f>SUM(C16:C25)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f t="shared" ref="D27:AF27" si="1">SUM(D16:D25)</f>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="P27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <f t="shared" si="1"/>
@@ -5974,16 +5974,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AF1"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="I14:N14"/>
     <mergeCell ref="O14:T14"/>
     <mergeCell ref="U14:Z14"/>
     <mergeCell ref="AA14:AF14"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="U1:Z1"/>
-    <mergeCell ref="AA1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6036,34 +6036,34 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>5.764736634914243</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>13.764736634914327</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5.7647366349143274</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5.7647366349139357</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.764736634914328</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7</v>
+        <v>5.7647366349143274</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.764736634914344</v>
       </c>
     </row>
   </sheetData>
